--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_3_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2583818.600734084</v>
+        <v>-2585526.345507223</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1266147.039048068</v>
+        <v>1266147.039048069</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.1101224634645</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>196.9826481283071</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -701,13 +701,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,19 +735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>85.76862888379719</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>137.0062620734511</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,58 +911,58 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U5" t="n">
+        <v>186.0850531309659</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I5" t="n">
-        <v>210.4758895704059</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>11.62493210760333</v>
-      </c>
-      <c r="S5" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.5865004745176</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>48.85313913288399</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="G8" t="n">
         <v>244.5627323611424</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>244.5627323611424</v>
-      </c>
-      <c r="G8" t="n">
-        <v>204.7150910205806</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U8" t="n">
         <v>244.5627323611424</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>10.68706647152393</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>99.6672001609758</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.5363898835276</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U9" t="n">
         <v>225.9408621947163</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>145.715937468681</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>52.62082870860903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>137.081565665098</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>137.081565665098</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.4525972395098</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>361.9916473470367</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>351.4017971967122</v>
       </c>
       <c r="E11" t="n">
-        <v>290.8131301305359</v>
+        <v>378.649125648291</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.6878951206203</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>312.2945974759635</v>
       </c>
       <c r="I11" t="n">
-        <v>117.2286093870409</v>
+        <v>117.228609387041</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>152.5619614085052</v>
       </c>
       <c r="T11" t="n">
-        <v>209.5992800241046</v>
+        <v>209.5992800241044</v>
       </c>
       <c r="U11" t="n">
-        <v>247.8777206462221</v>
+        <v>247.8777206462222</v>
       </c>
       <c r="V11" t="n">
         <v>324.4710140461641</v>
@@ -1436,7 +1436,7 @@
         <v>366.4498562544982</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.9566942320828</v>
+        <v>314.5824507042903</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>100.1767418367748</v>
       </c>
       <c r="I12" t="n">
-        <v>46.40807070890131</v>
+        <v>46.40807070890129</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>22.63603979730235</v>
+        <v>22.63603979730233</v>
       </c>
       <c r="S12" t="n">
         <v>148.4912525466982</v>
@@ -1576,16 +1576,16 @@
         <v>126.9454843118109</v>
       </c>
       <c r="S13" t="n">
-        <v>202.4929774942104</v>
+        <v>112.3297539548146</v>
       </c>
       <c r="T13" t="n">
-        <v>220.1917749595365</v>
+        <v>220.1917749595366</v>
       </c>
       <c r="U13" t="n">
         <v>282.9806882936506</v>
       </c>
       <c r="V13" t="n">
-        <v>158.6931753604614</v>
+        <v>248.8563988998572</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>345.8483788710901</v>
+        <v>345.8483788710902</v>
       </c>
       <c r="C14" t="n">
-        <v>328.387428978617</v>
+        <v>328.3874289786172</v>
       </c>
       <c r="D14" t="n">
-        <v>317.7975788282924</v>
+        <v>317.7975788282926</v>
       </c>
       <c r="E14" t="n">
-        <v>345.0449072798713</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>369.990582949321</v>
       </c>
       <c r="G14" t="n">
-        <v>36.72424579573741</v>
+        <v>376.0836767522007</v>
       </c>
       <c r="H14" t="n">
-        <v>278.6903791075438</v>
+        <v>278.6903791075439</v>
       </c>
       <c r="I14" t="n">
-        <v>83.62439101862135</v>
+        <v>83.62439101862142</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>118.9577430400855</v>
+        <v>118.9577430400856</v>
       </c>
       <c r="T14" t="n">
-        <v>175.9950616556851</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>214.2735022778025</v>
+        <v>214.2735022778027</v>
       </c>
       <c r="V14" t="n">
-        <v>290.8667956777444</v>
+        <v>290.8667956777445</v>
       </c>
       <c r="W14" t="n">
-        <v>312.3555059250225</v>
+        <v>312.3555059250226</v>
       </c>
       <c r="X14" t="n">
-        <v>332.8456378860785</v>
+        <v>332.8456378860786</v>
       </c>
       <c r="Y14" t="n">
-        <v>349.3524758636631</v>
+        <v>161.0424308934335</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>100.1767418367748</v>
       </c>
       <c r="I15" t="n">
-        <v>46.40807070890131</v>
+        <v>46.40807070890129</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>22.63603979730235</v>
+        <v>22.63603979730233</v>
       </c>
       <c r="S15" t="n">
         <v>148.4912525466982</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>75.95292892486378</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>93.34126594339122</v>
+        <v>93.34126594339129</v>
       </c>
       <c r="S16" t="n">
         <v>168.8887591257908</v>
       </c>
       <c r="T16" t="n">
-        <v>186.587556591117</v>
+        <v>186.5875565911171</v>
       </c>
       <c r="U16" t="n">
-        <v>249.3764699252309</v>
+        <v>249.376469925231</v>
       </c>
       <c r="V16" t="n">
-        <v>215.2521805314375</v>
+        <v>215.2521805314376</v>
       </c>
       <c r="W16" t="n">
-        <v>249.6375355442005</v>
+        <v>249.6375355442006</v>
       </c>
       <c r="X16" t="n">
-        <v>75.95292892486465</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>298.5583779440378</v>
       </c>
       <c r="C17" t="n">
-        <v>281.0974280515649</v>
+        <v>281.0974280515647</v>
       </c>
       <c r="D17" t="n">
         <v>270.5075779012402</v>
@@ -1853,16 +1853,16 @@
         <v>297.754906352819</v>
       </c>
       <c r="F17" t="n">
-        <v>322.7005820222687</v>
+        <v>322.7005820222686</v>
       </c>
       <c r="G17" t="n">
-        <v>328.7936758251484</v>
+        <v>328.7936758251483</v>
       </c>
       <c r="H17" t="n">
-        <v>231.4003781804916</v>
+        <v>231.4003781804915</v>
       </c>
       <c r="I17" t="n">
-        <v>36.33439009156913</v>
+        <v>36.33439009156905</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>71.66774211303364</v>
+        <v>71.66774211303319</v>
       </c>
       <c r="T17" t="n">
-        <v>128.7050607286327</v>
+        <v>128.7050607286326</v>
       </c>
       <c r="U17" t="n">
-        <v>166.983501350749</v>
+        <v>166.9835013507504</v>
       </c>
       <c r="V17" t="n">
-        <v>243.5767947506922</v>
+        <v>243.5767947506921</v>
       </c>
       <c r="W17" t="n">
-        <v>265.0655049979703</v>
+        <v>265.0655049979702</v>
       </c>
       <c r="X17" t="n">
-        <v>285.5556369590263</v>
+        <v>285.5556369590262</v>
       </c>
       <c r="Y17" t="n">
-        <v>302.0624749366109</v>
+        <v>302.0624749366108</v>
       </c>
     </row>
     <row r="18">
@@ -1968,13 +1968,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>22.63603979730236</v>
+        <v>22.63603979730235</v>
       </c>
       <c r="S18" t="n">
-        <v>148.4912525466983</v>
+        <v>148.4912525466982</v>
       </c>
       <c r="T18" t="n">
-        <v>195.1320549866726</v>
+        <v>195.1320549866725</v>
       </c>
       <c r="U18" t="n">
         <v>225.8592383316579</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.65651646249458</v>
+        <v>95.65651646249451</v>
       </c>
       <c r="C19" t="n">
-        <v>83.07135737918512</v>
+        <v>83.07135737918505</v>
       </c>
       <c r="D19" t="n">
-        <v>64.44000929876964</v>
+        <v>64.44000929876957</v>
       </c>
       <c r="E19" t="n">
-        <v>62.25849892712645</v>
+        <v>62.25849892712638</v>
       </c>
       <c r="F19" t="n">
-        <v>61.24558430348853</v>
+        <v>61.24558430348846</v>
       </c>
       <c r="G19" t="n">
-        <v>19.12406943042229</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>68.74495665227562</v>
+        <v>48.07329510491019</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>39.79573097778903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.05126501633899</v>
+        <v>46.05126501633891</v>
       </c>
       <c r="S19" t="n">
-        <v>121.5987581987385</v>
+        <v>121.5987581987384</v>
       </c>
       <c r="T19" t="n">
-        <v>139.2975556640648</v>
+        <v>139.2975556640647</v>
       </c>
       <c r="U19" t="n">
-        <v>202.0864689981782</v>
+        <v>202.0864689981784</v>
       </c>
       <c r="V19" t="n">
-        <v>167.9621796043853</v>
+        <v>167.9621796043852</v>
       </c>
       <c r="W19" t="n">
-        <v>202.3475346171483</v>
+        <v>202.3475346171482</v>
       </c>
       <c r="X19" t="n">
-        <v>141.5341916695944</v>
+        <v>141.5341916695943</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.4091896326521</v>
+        <v>134.409189632652</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>298.5583779440378</v>
       </c>
       <c r="C20" t="n">
-        <v>281.0974280515648</v>
+        <v>281.0974280515647</v>
       </c>
       <c r="D20" t="n">
         <v>270.5075779012402</v>
@@ -2090,16 +2090,16 @@
         <v>297.754906352819</v>
       </c>
       <c r="F20" t="n">
-        <v>322.7005820222687</v>
+        <v>322.7005820222686</v>
       </c>
       <c r="G20" t="n">
-        <v>328.7936758251489</v>
+        <v>328.7936758251483</v>
       </c>
       <c r="H20" t="n">
-        <v>231.4003781804921</v>
+        <v>231.4003781804915</v>
       </c>
       <c r="I20" t="n">
-        <v>36.33439009156909</v>
+        <v>36.33439009156905</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>71.66774211303319</v>
+        <v>71.66774211303364</v>
       </c>
       <c r="T20" t="n">
         <v>128.7050607286326</v>
       </c>
       <c r="U20" t="n">
-        <v>166.983501350749</v>
+        <v>166.9835013507499</v>
       </c>
       <c r="V20" t="n">
-        <v>243.5767947506922</v>
+        <v>243.5767947506921</v>
       </c>
       <c r="W20" t="n">
-        <v>265.0655049979703</v>
+        <v>265.0655049979702</v>
       </c>
       <c r="X20" t="n">
-        <v>285.5556369590263</v>
+        <v>285.5556369590262</v>
       </c>
       <c r="Y20" t="n">
         <v>302.0624749366108</v>
@@ -2205,13 +2205,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>22.63603979730236</v>
+        <v>22.63603979730235</v>
       </c>
       <c r="S21" t="n">
-        <v>148.4912525466983</v>
+        <v>148.4912525466982</v>
       </c>
       <c r="T21" t="n">
-        <v>195.1320549866726</v>
+        <v>195.1320549866725</v>
       </c>
       <c r="U21" t="n">
         <v>225.8592383316579</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.65651646249454</v>
+        <v>95.65651646249451</v>
       </c>
       <c r="C22" t="n">
-        <v>83.07135737918507</v>
+        <v>83.07135737918505</v>
       </c>
       <c r="D22" t="n">
-        <v>64.4400092987696</v>
+        <v>64.44000929876957</v>
       </c>
       <c r="E22" t="n">
-        <v>62.25849892712641</v>
+        <v>62.25849892712638</v>
       </c>
       <c r="F22" t="n">
-        <v>61.24558430348849</v>
+        <v>61.24558430348846</v>
       </c>
       <c r="G22" t="n">
-        <v>19.12406943042297</v>
+        <v>82.76874392640929</v>
       </c>
       <c r="H22" t="n">
-        <v>68.74495665227558</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>5.100282156290131</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>46.05126501633897</v>
       </c>
       <c r="S22" t="n">
-        <v>121.5987581987385</v>
+        <v>121.5987581987384</v>
       </c>
       <c r="T22" t="n">
-        <v>139.2975556640647</v>
+        <v>139.2975556640648</v>
       </c>
       <c r="U22" t="n">
-        <v>202.0864689981782</v>
+        <v>202.0864689981784</v>
       </c>
       <c r="V22" t="n">
-        <v>167.9621796043853</v>
+        <v>167.9621796043852</v>
       </c>
       <c r="W22" t="n">
-        <v>202.3475346171483</v>
+        <v>202.3475346171482</v>
       </c>
       <c r="X22" t="n">
-        <v>141.5341916695944</v>
+        <v>141.5341916695943</v>
       </c>
       <c r="Y22" t="n">
         <v>134.409189632652</v>
@@ -2318,7 +2318,7 @@
         <v>298.5583779440378</v>
       </c>
       <c r="C23" t="n">
-        <v>281.0974280515648</v>
+        <v>281.0974280515647</v>
       </c>
       <c r="D23" t="n">
         <v>270.5075779012402</v>
@@ -2327,16 +2327,16 @@
         <v>297.754906352819</v>
       </c>
       <c r="F23" t="n">
-        <v>322.7005820222687</v>
+        <v>322.7005820222686</v>
       </c>
       <c r="G23" t="n">
-        <v>328.7936758251484</v>
+        <v>328.7936758251483</v>
       </c>
       <c r="H23" t="n">
-        <v>231.4003781804916</v>
+        <v>231.4003781804915</v>
       </c>
       <c r="I23" t="n">
-        <v>36.33439009156912</v>
+        <v>36.33439009156906</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,22 +2366,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.66774211303328</v>
+        <v>71.66774211303319</v>
       </c>
       <c r="T23" t="n">
         <v>128.7050607286326</v>
       </c>
       <c r="U23" t="n">
-        <v>166.9835013507499</v>
+        <v>166.9835013507504</v>
       </c>
       <c r="V23" t="n">
-        <v>243.5767947506922</v>
+        <v>243.5767947506921</v>
       </c>
       <c r="W23" t="n">
-        <v>265.0655049979703</v>
+        <v>265.0655049979702</v>
       </c>
       <c r="X23" t="n">
-        <v>285.5556369590263</v>
+        <v>285.5556369590262</v>
       </c>
       <c r="Y23" t="n">
         <v>302.0624749366108</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95.65651646249457</v>
+        <v>95.65651646249451</v>
       </c>
       <c r="C25" t="n">
-        <v>83.0713573791851</v>
+        <v>83.07135737918505</v>
       </c>
       <c r="D25" t="n">
-        <v>64.44000929876962</v>
+        <v>64.44000929876957</v>
       </c>
       <c r="E25" t="n">
-        <v>62.25849892712644</v>
+        <v>62.25849892712638</v>
       </c>
       <c r="F25" t="n">
-        <v>61.24558430348851</v>
+        <v>61.24558430348846</v>
       </c>
       <c r="G25" t="n">
-        <v>82.76874392640936</v>
+        <v>82.7687439264093</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>5.100282156288555</v>
+        <v>39.79573097778903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.05126501633897</v>
+        <v>11.35581619483899</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5987581987384</v>
+        <v>121.5987581987385</v>
       </c>
       <c r="T25" t="n">
-        <v>139.2975556640648</v>
+        <v>139.2975556640647</v>
       </c>
       <c r="U25" t="n">
         <v>202.0864689981786</v>
       </c>
       <c r="V25" t="n">
-        <v>167.9621796043853</v>
+        <v>167.9621796043852</v>
       </c>
       <c r="W25" t="n">
-        <v>202.3475346171483</v>
+        <v>202.3475346171482</v>
       </c>
       <c r="X25" t="n">
-        <v>141.5341916695944</v>
+        <v>141.5341916695943</v>
       </c>
       <c r="Y25" t="n">
         <v>134.409189632652</v>
@@ -2728,7 +2728,7 @@
         <v>78.42994634101895</v>
       </c>
       <c r="H28" t="n">
-        <v>64.40615906688519</v>
+        <v>64.40615906688508</v>
       </c>
       <c r="I28" t="n">
         <v>35.45693339239868</v>
@@ -2761,13 +2761,13 @@
         <v>41.71246743094856</v>
       </c>
       <c r="S28" t="n">
-        <v>117.2599606133481</v>
+        <v>117.2599606133484</v>
       </c>
       <c r="T28" t="n">
         <v>134.9587580786744</v>
       </c>
       <c r="U28" t="n">
-        <v>197.7476714127882</v>
+        <v>197.7476714127879</v>
       </c>
       <c r="V28" t="n">
         <v>163.6233820189948</v>
@@ -2962,13 +2962,13 @@
         <v>61.24558430348843</v>
       </c>
       <c r="G31" t="n">
-        <v>19.12406943042454</v>
+        <v>82.76874392640927</v>
       </c>
       <c r="H31" t="n">
         <v>68.74495665227552</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>39.79573097778901</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>139.2975556640646</v>
       </c>
       <c r="U31" t="n">
-        <v>202.0864689981784</v>
+        <v>202.0864689981786</v>
       </c>
       <c r="V31" t="n">
         <v>167.9621796043852</v>
@@ -3016,7 +3016,7 @@
         <v>141.5341916695943</v>
       </c>
       <c r="Y31" t="n">
-        <v>134.409189632652</v>
+        <v>30.96878415887826</v>
       </c>
     </row>
     <row r="32">
@@ -3026,19 +3026,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>294.2195803586475</v>
+        <v>294.2195803586474</v>
       </c>
       <c r="C32" t="n">
         <v>276.7586304661744</v>
       </c>
       <c r="D32" t="n">
-        <v>266.1687803158499</v>
+        <v>266.1687803158498</v>
       </c>
       <c r="E32" t="n">
-        <v>293.4161087674287</v>
+        <v>293.4161087674286</v>
       </c>
       <c r="F32" t="n">
-        <v>318.3617844368783</v>
+        <v>383.4437482177333</v>
       </c>
       <c r="G32" t="n">
         <v>324.454878239758</v>
@@ -3047,7 +3047,7 @@
         <v>227.0615805951012</v>
       </c>
       <c r="I32" t="n">
-        <v>31.99559250617871</v>
+        <v>31.9955925061787</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,16 +3077,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>67.32894452764288</v>
+        <v>67.32894452764285</v>
       </c>
       <c r="T32" t="n">
-        <v>124.3662631432423</v>
+        <v>124.3662631432422</v>
       </c>
       <c r="U32" t="n">
-        <v>227.7266675462143</v>
+        <v>162.6447037653598</v>
       </c>
       <c r="V32" t="n">
-        <v>239.2379971653018</v>
+        <v>239.2379971653017</v>
       </c>
       <c r="W32" t="n">
         <v>260.7267074125799</v>
@@ -3153,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>22.63603979730235</v>
+        <v>22.63603979730236</v>
       </c>
       <c r="S33" t="n">
-        <v>148.4912525466982</v>
+        <v>148.4912525466983</v>
       </c>
       <c r="T33" t="n">
-        <v>195.1320549866725</v>
+        <v>195.1320549866726</v>
       </c>
       <c r="U33" t="n">
         <v>225.8592383316579</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.31771887710417</v>
+        <v>91.31771887710414</v>
       </c>
       <c r="C34" t="n">
-        <v>78.73255979379471</v>
+        <v>78.73255979379468</v>
       </c>
       <c r="D34" t="n">
-        <v>60.10121171337923</v>
+        <v>60.1012117133792</v>
       </c>
       <c r="E34" t="n">
-        <v>57.91970134173604</v>
+        <v>57.91970134173602</v>
       </c>
       <c r="F34" t="n">
-        <v>56.90678671809812</v>
+        <v>56.90678671809809</v>
       </c>
       <c r="G34" t="n">
-        <v>78.42994634101896</v>
+        <v>78.42994634101893</v>
       </c>
       <c r="H34" t="n">
-        <v>64.40615906688521</v>
+        <v>64.40615906688518</v>
       </c>
       <c r="I34" t="n">
-        <v>35.45693339239885</v>
+        <v>35.45693339239867</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71246743094858</v>
+        <v>41.71246743094855</v>
       </c>
       <c r="S34" t="n">
         <v>117.2599606133481</v>
       </c>
       <c r="T34" t="n">
-        <v>134.9587580786744</v>
+        <v>134.9587580786743</v>
       </c>
       <c r="U34" t="n">
-        <v>197.7476714127883</v>
+        <v>197.7476714127879</v>
       </c>
       <c r="V34" t="n">
-        <v>163.6233820189949</v>
+        <v>163.6233820189948</v>
       </c>
       <c r="W34" t="n">
-        <v>198.0087370317579</v>
+        <v>198.0087370317578</v>
       </c>
       <c r="X34" t="n">
         <v>137.195394084204</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.0703920472617</v>
+        <v>130.0703920472616</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>266.1687803158498</v>
       </c>
       <c r="E35" t="n">
-        <v>293.4161087674286</v>
+        <v>358.4980725482837</v>
       </c>
       <c r="F35" t="n">
         <v>318.3617844368783</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.4109083084976</v>
+        <v>67.32894452764285</v>
       </c>
       <c r="T35" t="n">
         <v>124.3662631432422</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>22.63603979730235</v>
+        <v>22.63603979730236</v>
       </c>
       <c r="S36" t="n">
-        <v>148.4912525466982</v>
+        <v>148.4912525466983</v>
       </c>
       <c r="T36" t="n">
-        <v>195.1320549866725</v>
+        <v>195.1320549866726</v>
       </c>
       <c r="U36" t="n">
         <v>225.8592383316579</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.31771887710416</v>
+        <v>91.31771887710414</v>
       </c>
       <c r="C37" t="n">
-        <v>78.73255979379469</v>
+        <v>78.73255979379468</v>
       </c>
       <c r="D37" t="n">
-        <v>60.10121171337921</v>
+        <v>60.1012117133792</v>
       </c>
       <c r="E37" t="n">
-        <v>57.91970134173603</v>
+        <v>57.91970134173602</v>
       </c>
       <c r="F37" t="n">
-        <v>56.9067867180981</v>
+        <v>56.90678671809809</v>
       </c>
       <c r="G37" t="n">
         <v>78.42994634101893</v>
@@ -3442,7 +3442,7 @@
         <v>64.40615906688518</v>
       </c>
       <c r="I37" t="n">
-        <v>35.45693339239868</v>
+        <v>35.45693339239879</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71246743094856</v>
+        <v>41.71246743094855</v>
       </c>
       <c r="S37" t="n">
         <v>117.2599606133481</v>
       </c>
       <c r="T37" t="n">
-        <v>134.9587580786744</v>
+        <v>134.9587580786743</v>
       </c>
       <c r="U37" t="n">
-        <v>197.7476714127882</v>
+        <v>197.7476714127883</v>
       </c>
       <c r="V37" t="n">
         <v>163.6233820189948</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>359.301544139502</v>
+        <v>294.2195803586474</v>
       </c>
       <c r="C38" t="n">
         <v>276.7586304661744</v>
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>3.281244423970861</v>
       </c>
       <c r="S38" t="n">
         <v>67.32894452764285</v>
@@ -3569,7 +3569,7 @@
         <v>281.2168393736359</v>
       </c>
       <c r="Y38" t="n">
-        <v>297.7236773512204</v>
+        <v>359.5243967081044</v>
       </c>
     </row>
     <row r="39">
@@ -3673,7 +3673,7 @@
         <v>56.90678671809809</v>
       </c>
       <c r="G40" t="n">
-        <v>78.42994634101892</v>
+        <v>78.42994634101893</v>
       </c>
       <c r="H40" t="n">
         <v>64.40615906688518</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71246743094856</v>
+        <v>41.71246743094855</v>
       </c>
       <c r="S40" t="n">
         <v>117.2599606133481</v>
@@ -3715,7 +3715,7 @@
         <v>134.9587580786743</v>
       </c>
       <c r="U40" t="n">
-        <v>197.7476714127884</v>
+        <v>197.7476714127882</v>
       </c>
       <c r="V40" t="n">
         <v>163.6233820189948</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.2195803586475</v>
+        <v>294.2195803586474</v>
       </c>
       <c r="C41" t="n">
-        <v>276.7586304661745</v>
+        <v>276.7586304661744</v>
       </c>
       <c r="D41" t="n">
-        <v>266.1687803158499</v>
+        <v>331.2507440967045</v>
       </c>
       <c r="E41" t="n">
-        <v>293.4161087674287</v>
+        <v>293.4161087674286</v>
       </c>
       <c r="F41" t="n">
         <v>318.3617844368783</v>
@@ -3758,7 +3758,7 @@
         <v>227.0615805951012</v>
       </c>
       <c r="I41" t="n">
-        <v>31.99559250617875</v>
+        <v>31.99559250617871</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.3289445276429</v>
+        <v>67.32894452764288</v>
       </c>
       <c r="T41" t="n">
-        <v>124.3662631432423</v>
+        <v>124.3662631432422</v>
       </c>
       <c r="U41" t="n">
-        <v>162.6447037653599</v>
+        <v>162.6447037653598</v>
       </c>
       <c r="V41" t="n">
-        <v>239.2379971653018</v>
+        <v>239.2379971653017</v>
       </c>
       <c r="W41" t="n">
-        <v>325.8086711934338</v>
+        <v>260.7267074125799</v>
       </c>
       <c r="X41" t="n">
         <v>281.2168393736359</v>
       </c>
       <c r="Y41" t="n">
-        <v>297.7236773512205</v>
+        <v>297.7236773512204</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.3177188771042</v>
+        <v>91.31771887710416</v>
       </c>
       <c r="C43" t="n">
-        <v>78.73255979379474</v>
+        <v>78.73255979379469</v>
       </c>
       <c r="D43" t="n">
-        <v>60.10121171337926</v>
+        <v>60.10121171337921</v>
       </c>
       <c r="E43" t="n">
-        <v>57.91970134173607</v>
+        <v>57.91970134173603</v>
       </c>
       <c r="F43" t="n">
-        <v>56.90678671809815</v>
+        <v>56.9067867180981</v>
       </c>
       <c r="G43" t="n">
-        <v>78.42994634101899</v>
+        <v>78.42994634101895</v>
       </c>
       <c r="H43" t="n">
-        <v>64.40615906688524</v>
+        <v>64.40615906688519</v>
       </c>
       <c r="I43" t="n">
-        <v>35.45693339239872</v>
+        <v>35.45693339239868</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71246743094861</v>
+        <v>41.71246743094856</v>
       </c>
       <c r="S43" t="n">
         <v>117.2599606133481</v>
@@ -3955,16 +3955,16 @@
         <v>197.7476714127883</v>
       </c>
       <c r="V43" t="n">
-        <v>163.6233820189949</v>
+        <v>163.6233820189948</v>
       </c>
       <c r="W43" t="n">
-        <v>198.0087370317579</v>
+        <v>198.0087370317578</v>
       </c>
       <c r="X43" t="n">
-        <v>137.1953940842041</v>
+        <v>137.195394084204</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.0703920472617</v>
+        <v>130.0703920472616</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.2195803586475</v>
+        <v>294.2195803586474</v>
       </c>
       <c r="C44" t="n">
         <v>276.7586304661744</v>
       </c>
       <c r="D44" t="n">
-        <v>266.1687803158499</v>
+        <v>266.1687803158498</v>
       </c>
       <c r="E44" t="n">
-        <v>293.4161087674287</v>
+        <v>293.4161087674286</v>
       </c>
       <c r="F44" t="n">
         <v>318.3617844368783</v>
       </c>
       <c r="G44" t="n">
-        <v>324.454878239758</v>
+        <v>389.5368420206125</v>
       </c>
       <c r="H44" t="n">
         <v>227.0615805951012</v>
       </c>
       <c r="I44" t="n">
-        <v>31.99559250617872</v>
+        <v>31.99559250617871</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4028,13 @@
         <v>67.32894452764288</v>
       </c>
       <c r="T44" t="n">
-        <v>189.4482269240966</v>
+        <v>124.3662631432422</v>
       </c>
       <c r="U44" t="n">
         <v>162.6447037653598</v>
       </c>
       <c r="V44" t="n">
-        <v>239.2379971653018</v>
+        <v>239.2379971653017</v>
       </c>
       <c r="W44" t="n">
         <v>260.7267074125799</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.31771887710417</v>
+        <v>91.31771887710416</v>
       </c>
       <c r="C46" t="n">
-        <v>78.73255979379471</v>
+        <v>78.73255979379469</v>
       </c>
       <c r="D46" t="n">
-        <v>60.10121171337923</v>
+        <v>60.10121171337921</v>
       </c>
       <c r="E46" t="n">
-        <v>57.91970134173604</v>
+        <v>57.91970134173603</v>
       </c>
       <c r="F46" t="n">
-        <v>56.90678671809812</v>
+        <v>56.9067867180981</v>
       </c>
       <c r="G46" t="n">
-        <v>78.42994634101896</v>
+        <v>78.42994634101895</v>
       </c>
       <c r="H46" t="n">
-        <v>64.40615906688521</v>
+        <v>64.40615906688519</v>
       </c>
       <c r="I46" t="n">
-        <v>35.4569333923987</v>
+        <v>35.45693339239868</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71246743094858</v>
+        <v>41.71246743094856</v>
       </c>
       <c r="S46" t="n">
         <v>117.2599606133481</v>
@@ -4189,19 +4189,19 @@
         <v>134.9587580786744</v>
       </c>
       <c r="U46" t="n">
-        <v>197.7476714127882</v>
+        <v>197.7476714127884</v>
       </c>
       <c r="V46" t="n">
-        <v>163.6233820189949</v>
+        <v>163.6233820189948</v>
       </c>
       <c r="W46" t="n">
-        <v>198.0087370317579</v>
+        <v>198.0087370317578</v>
       </c>
       <c r="X46" t="n">
         <v>137.195394084204</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.0703920472617</v>
+        <v>130.0703920472616</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>477.1596022224361</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="C2" t="n">
-        <v>477.1596022224361</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="E2" t="n">
-        <v>477.1596022224361</v>
+        <v>41.68395448076474</v>
       </c>
       <c r="F2" t="n">
-        <v>278.1872303756613</v>
+        <v>34.73845373156126</v>
       </c>
       <c r="G2" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="3">
@@ -4383,16 +4383,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>426.903709034957</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>252.45067975383</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
         <v>19.28114311021272</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>862.8876260635219</v>
+        <v>825.6669918000796</v>
       </c>
       <c r="T3" t="n">
-        <v>862.8876260635219</v>
+        <v>623.4803971588456</v>
       </c>
       <c r="U3" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="V3" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="W3" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X3" t="n">
-        <v>634.6640077999109</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y3" t="n">
-        <v>426.903709034957</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="4">
@@ -4504,19 +4504,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>497.7346397818405</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C5" t="n">
-        <v>497.7346397818405</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>497.7346397818405</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>497.7346397818405</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>490.789139032637</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>475.3318284112885</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>231.8830517671884</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>952.3147998463904</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>741.1834164259405</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>741.1834164259405</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>741.1834164259405</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="V5" t="n">
-        <v>497.7346397818405</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="W5" t="n">
-        <v>497.7346397818405</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="X5" t="n">
-        <v>497.7346397818405</v>
+        <v>540.6514970160482</v>
       </c>
       <c r="Y5" t="n">
-        <v>497.7346397818405</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4620,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.215552771464</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C6" t="n">
-        <v>168.215552771464</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4674,22 +4674,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X6" t="n">
-        <v>481.618781308658</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y6" t="n">
-        <v>273.858482543704</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="7">
@@ -4759,16 +4759,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>484.1848034624638</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="C8" t="n">
-        <v>484.1848034624638</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="D8" t="n">
-        <v>484.1848034624638</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="E8" t="n">
-        <v>484.1848034624638</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="F8" t="n">
-        <v>237.1517404714109</v>
+        <v>277.4018832396552</v>
       </c>
       <c r="G8" t="n">
         <v>30.36882024860223</v>
@@ -4829,25 +4829,25 @@
         <v>978.2509294445697</v>
       </c>
       <c r="S8" t="n">
-        <v>978.2509294445697</v>
+        <v>767.459500953026</v>
       </c>
       <c r="T8" t="n">
-        <v>978.2509294445697</v>
+        <v>542.1754636178146</v>
       </c>
       <c r="U8" t="n">
-        <v>731.2178664535168</v>
+        <v>295.1424006267616</v>
       </c>
       <c r="V8" t="n">
-        <v>731.2178664535168</v>
+        <v>295.1424006267616</v>
       </c>
       <c r="W8" t="n">
-        <v>731.2178664535168</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="X8" t="n">
-        <v>731.2178664535168</v>
+        <v>284.3473839888587</v>
       </c>
       <c r="Y8" t="n">
-        <v>731.2178664535168</v>
+        <v>284.3473839888587</v>
       </c>
     </row>
     <row r="9">
@@ -4890,7 +4890,7 @@
         <v>19.56501858889139</v>
       </c>
       <c r="M9" t="n">
-        <v>239.4861551219973</v>
+        <v>261.6821236264224</v>
       </c>
       <c r="N9" t="n">
         <v>481.6032601595283</v>
@@ -4905,28 +4905,28 @@
         <v>978.2509294445697</v>
       </c>
       <c r="R9" t="n">
-        <v>877.5769898880285</v>
+        <v>978.2509294445697</v>
       </c>
       <c r="S9" t="n">
-        <v>704.3079091975965</v>
+        <v>804.9818487541377</v>
       </c>
       <c r="T9" t="n">
-        <v>704.3079091975965</v>
+        <v>602.8274275453307</v>
       </c>
       <c r="U9" t="n">
-        <v>476.0848160716204</v>
+        <v>374.6043344193546</v>
       </c>
       <c r="V9" t="n">
-        <v>240.9327078398777</v>
+        <v>374.6043344193546</v>
       </c>
       <c r="W9" t="n">
-        <v>240.9327078398777</v>
+        <v>227.4165187944242</v>
       </c>
       <c r="X9" t="n">
-        <v>240.9327078398777</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y9" t="n">
-        <v>187.7803556089594</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="10">
@@ -4984,13 +4984,13 @@
         <v>158.0312465334349</v>
       </c>
       <c r="R10" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="S10" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="T10" t="n">
-        <v>158.0312465334349</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="U10" t="n">
         <v>19.56501858889139</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1205.547063517024</v>
+        <v>1657.897407726421</v>
       </c>
       <c r="C11" t="n">
-        <v>839.8989348836531</v>
+        <v>1657.897407726421</v>
       </c>
       <c r="D11" t="n">
-        <v>484.9476245839438</v>
+        <v>1302.946097426711</v>
       </c>
       <c r="E11" t="n">
-        <v>191.1969880884531</v>
+        <v>920.4722331355076</v>
       </c>
       <c r="F11" t="n">
-        <v>191.1969880884531</v>
+        <v>920.4722331355076</v>
       </c>
       <c r="G11" t="n">
-        <v>191.1969880884531</v>
+        <v>506.6460764480124</v>
       </c>
       <c r="H11" t="n">
-        <v>191.1969880884531</v>
+        <v>191.1969880884532</v>
       </c>
       <c r="I11" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="J11" t="n">
-        <v>257.0350535177266</v>
+        <v>257.0350535177267</v>
       </c>
       <c r="K11" t="n">
-        <v>653.924048145768</v>
+        <v>653.9240481457687</v>
       </c>
       <c r="L11" t="n">
-        <v>1198.576568849668</v>
+        <v>1198.576568849669</v>
       </c>
       <c r="M11" t="n">
-        <v>1821.213986911388</v>
+        <v>1821.213986911389</v>
       </c>
       <c r="N11" t="n">
-        <v>2439.294331798912</v>
+        <v>2439.294331798914</v>
       </c>
       <c r="O11" t="n">
-        <v>2977.742436950446</v>
+        <v>2977.742436950447</v>
       </c>
       <c r="P11" t="n">
-        <v>3399.621054352557</v>
+        <v>3399.621054352559</v>
       </c>
       <c r="Q11" t="n">
-        <v>3639.212566693316</v>
+        <v>3639.212566693317</v>
       </c>
       <c r="R11" t="n">
-        <v>3639.212566693316</v>
+        <v>3639.212566693317</v>
       </c>
       <c r="S11" t="n">
-        <v>3485.109575371593</v>
+        <v>3485.109575371594</v>
       </c>
       <c r="T11" t="n">
-        <v>3273.393130902801</v>
+        <v>3273.393130902802</v>
       </c>
       <c r="U11" t="n">
-        <v>3023.011594896516</v>
+        <v>3023.011594896517</v>
       </c>
       <c r="V11" t="n">
-        <v>2695.263095859987</v>
+        <v>2695.263095859988</v>
       </c>
       <c r="W11" t="n">
-        <v>2345.808828896914</v>
+        <v>2345.808828896915</v>
       </c>
       <c r="X11" t="n">
-        <v>1975.657458942875</v>
+        <v>1975.657458942876</v>
       </c>
       <c r="Y11" t="n">
-        <v>1588.832515274104</v>
+        <v>1657.897407726421</v>
       </c>
     </row>
     <row r="12">
@@ -5115,25 +5115,25 @@
         <v>119.6610904337666</v>
       </c>
       <c r="I12" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="J12" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="K12" t="n">
         <v>135.9241303768841</v>
       </c>
       <c r="L12" t="n">
-        <v>267.1460308504128</v>
+        <v>267.1460308504129</v>
       </c>
       <c r="M12" t="n">
-        <v>804.0669692543327</v>
+        <v>804.0669692543324</v>
       </c>
       <c r="N12" t="n">
-        <v>1470.076409481</v>
+        <v>1470.076409480999</v>
       </c>
       <c r="O12" t="n">
-        <v>2012.929253531777</v>
+        <v>2012.929253531776</v>
       </c>
       <c r="P12" t="n">
         <v>2431.613451957249</v>
@@ -5173,46 +5173,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="C13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="D13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="E13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="F13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="G13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="H13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="I13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="J13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="K13" t="n">
-        <v>174.3855687899941</v>
+        <v>174.3855687899942</v>
       </c>
       <c r="L13" t="n">
         <v>359.0182670691656</v>
       </c>
       <c r="M13" t="n">
-        <v>563.9000990054122</v>
+        <v>563.9000990054124</v>
       </c>
       <c r="N13" t="n">
-        <v>769.4221557853546</v>
+        <v>769.4221557853547</v>
       </c>
       <c r="O13" t="n">
-        <v>943.4867236884634</v>
+        <v>943.4867236884635</v>
       </c>
       <c r="P13" t="n">
         <v>1069.377187121113</v>
@@ -5221,28 +5221,28 @@
         <v>1074.101524485048</v>
       </c>
       <c r="R13" t="n">
-        <v>945.8737625539259</v>
+        <v>945.873762553926</v>
       </c>
       <c r="S13" t="n">
-        <v>741.3354014486628</v>
+        <v>832.4093646197698</v>
       </c>
       <c r="T13" t="n">
-        <v>518.9194671461006</v>
+        <v>609.9934303172075</v>
       </c>
       <c r="U13" t="n">
-        <v>233.0803880616051</v>
+        <v>324.154351232712</v>
       </c>
       <c r="V13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="W13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="X13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
       <c r="Y13" t="n">
-        <v>72.78425133386632</v>
+        <v>72.78425133386634</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1477.096302857788</v>
+        <v>1845.08125904558</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.391829142014</v>
+        <v>1513.376785329805</v>
       </c>
       <c r="D14" t="n">
-        <v>824.3841737599</v>
+        <v>1192.369129947692</v>
       </c>
       <c r="E14" t="n">
-        <v>475.8539643862932</v>
+        <v>1192.369129947692</v>
       </c>
       <c r="F14" t="n">
-        <v>475.8539643862932</v>
+        <v>818.641268382721</v>
       </c>
       <c r="G14" t="n">
-        <v>438.7587666128211</v>
+        <v>438.7587666128213</v>
       </c>
       <c r="H14" t="n">
-        <v>157.2533331708576</v>
+        <v>157.2533331708577</v>
       </c>
       <c r="I14" t="n">
         <v>72.78425133386632</v>
@@ -5291,7 +5291,7 @@
         <v>2439.294331798913</v>
       </c>
       <c r="O14" t="n">
-        <v>2977.742436950447</v>
+        <v>2977.742436950446</v>
       </c>
       <c r="P14" t="n">
         <v>3399.621054352558</v>
@@ -5306,22 +5306,22 @@
         <v>3519.053230289189</v>
       </c>
       <c r="T14" t="n">
-        <v>3341.280440737992</v>
+        <v>3519.053230289189</v>
       </c>
       <c r="U14" t="n">
-        <v>3124.842559649303</v>
+        <v>3302.6153492005</v>
       </c>
       <c r="V14" t="n">
-        <v>2831.037715530369</v>
+        <v>3008.810505081566</v>
       </c>
       <c r="W14" t="n">
-        <v>2515.527103484892</v>
+        <v>2693.299893036088</v>
       </c>
       <c r="X14" t="n">
-        <v>2179.319388448449</v>
+        <v>2357.092177999645</v>
       </c>
       <c r="Y14" t="n">
-        <v>1826.438099697273</v>
+        <v>2194.423055885065</v>
       </c>
     </row>
     <row r="15">
@@ -5331,22 +5331,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4787989308453</v>
+        <v>987.4787989308451</v>
       </c>
       <c r="C15" t="n">
-        <v>813.0257696497183</v>
+        <v>813.0257696497181</v>
       </c>
       <c r="D15" t="n">
-        <v>664.091359988467</v>
+        <v>664.0913599884668</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8539049830115</v>
+        <v>504.8539049830114</v>
       </c>
       <c r="F15" t="n">
         <v>358.3193470098964</v>
       </c>
       <c r="G15" t="n">
-        <v>220.849718551721</v>
+        <v>220.8497185517209</v>
       </c>
       <c r="H15" t="n">
         <v>119.6610904337666</v>
@@ -5361,16 +5361,16 @@
         <v>135.9241303768841</v>
       </c>
       <c r="L15" t="n">
-        <v>267.1460308504128</v>
+        <v>267.1460308504129</v>
       </c>
       <c r="M15" t="n">
-        <v>900.6806806505973</v>
+        <v>900.6806806505975</v>
       </c>
       <c r="N15" t="n">
-        <v>1470.076409481</v>
+        <v>1566.690120877265</v>
       </c>
       <c r="O15" t="n">
-        <v>2012.929253531777</v>
+        <v>2012.929253531776</v>
       </c>
       <c r="P15" t="n">
         <v>2431.613451957249</v>
@@ -5391,7 +5391,7 @@
         <v>2060.695399881344</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.543291649602</v>
+        <v>1825.543291649601</v>
       </c>
       <c r="W15" t="n">
         <v>1571.3059349214</v>
@@ -5410,7 +5410,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>72.78425133386632</v>
+        <v>149.5043815610015</v>
       </c>
       <c r="C16" t="n">
         <v>72.78425133386632</v>
@@ -5434,19 +5434,19 @@
         <v>72.78425133386632</v>
       </c>
       <c r="J16" t="n">
-        <v>90.14196366330646</v>
+        <v>90.1419636633064</v>
       </c>
       <c r="K16" t="n">
-        <v>225.0114573041698</v>
+        <v>225.0114573041696</v>
       </c>
       <c r="L16" t="n">
-        <v>442.9123317680766</v>
+        <v>442.9123317680765</v>
       </c>
       <c r="M16" t="n">
-        <v>681.0623398890588</v>
+        <v>681.0623398890586</v>
       </c>
       <c r="N16" t="n">
-        <v>919.8525728537367</v>
+        <v>919.8525728537363</v>
       </c>
       <c r="O16" t="n">
         <v>1127.185316941581</v>
@@ -5455,31 +5455,31 @@
         <v>1286.343956558966</v>
       </c>
       <c r="Q16" t="n">
-        <v>1324.336470107637</v>
+        <v>1324.336470107636</v>
       </c>
       <c r="R16" t="n">
         <v>1230.05236309411</v>
       </c>
       <c r="S16" t="n">
-        <v>1059.457656906443</v>
+        <v>1059.457656906442</v>
       </c>
       <c r="T16" t="n">
-        <v>870.985377521476</v>
+        <v>870.9853775214755</v>
       </c>
       <c r="U16" t="n">
-        <v>619.0899533545761</v>
+        <v>619.0899533545754</v>
       </c>
       <c r="V16" t="n">
-        <v>401.6635083733261</v>
+        <v>401.6635083733253</v>
       </c>
       <c r="W16" t="n">
-        <v>149.5043815610023</v>
+        <v>149.5043815610015</v>
       </c>
       <c r="X16" t="n">
-        <v>72.78425133386632</v>
+        <v>149.5043815610015</v>
       </c>
       <c r="Y16" t="n">
-        <v>72.78425133386632</v>
+        <v>149.5043815610015</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1302.060950800833</v>
       </c>
       <c r="E17" t="n">
-        <v>1001.298419131319</v>
+        <v>1001.298419131318</v>
       </c>
       <c r="F17" t="n">
-        <v>675.3382352704413</v>
+        <v>675.338235270441</v>
       </c>
       <c r="G17" t="n">
-        <v>343.2234112046348</v>
+        <v>343.2234112046346</v>
       </c>
       <c r="H17" t="n">
         <v>109.4856554667644</v>
@@ -5513,22 +5513,22 @@
         <v>72.78425133386632</v>
       </c>
       <c r="J17" t="n">
-        <v>257.0350535177272</v>
+        <v>257.0350535177267</v>
       </c>
       <c r="K17" t="n">
-        <v>653.9240481457687</v>
+        <v>653.9240481457678</v>
       </c>
       <c r="L17" t="n">
         <v>1198.576568849669</v>
       </c>
       <c r="M17" t="n">
-        <v>1821.213986911389</v>
+        <v>1821.213986911388</v>
       </c>
       <c r="N17" t="n">
         <v>2439.294331798913</v>
       </c>
       <c r="O17" t="n">
-        <v>2977.742436950447</v>
+        <v>2977.742436950446</v>
       </c>
       <c r="P17" t="n">
         <v>3399.621054352558</v>
@@ -5540,25 +5540,25 @@
         <v>3639.212566693316</v>
       </c>
       <c r="S17" t="n">
-        <v>3566.820907993282</v>
+        <v>3566.820907993283</v>
       </c>
       <c r="T17" t="n">
-        <v>3436.815796146178</v>
+        <v>3436.815796146179</v>
       </c>
       <c r="U17" t="n">
         <v>3268.145592761583</v>
       </c>
       <c r="V17" t="n">
-        <v>3022.108426346743</v>
+        <v>3022.108426346742</v>
       </c>
       <c r="W17" t="n">
-        <v>2754.365492005359</v>
+        <v>2754.365492005358</v>
       </c>
       <c r="X17" t="n">
-        <v>2465.925454673009</v>
+        <v>2465.925454673008</v>
       </c>
       <c r="Y17" t="n">
-        <v>2160.811843625927</v>
+        <v>2160.811843625926</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>72.78425133386632</v>
       </c>
       <c r="K18" t="n">
-        <v>135.924130376884</v>
+        <v>135.9241303768841</v>
       </c>
       <c r="L18" t="n">
-        <v>267.1460308504127</v>
+        <v>267.1460308504128</v>
       </c>
       <c r="M18" t="n">
-        <v>804.0669692543331</v>
+        <v>804.0669692543327</v>
       </c>
       <c r="N18" t="n">
         <v>1470.076409481</v>
@@ -5610,16 +5610,16 @@
         <v>2012.929253531777</v>
       </c>
       <c r="P18" t="n">
-        <v>2431.61345195725</v>
+        <v>2431.613451957249</v>
       </c>
       <c r="Q18" t="n">
-        <v>2658.794981358447</v>
+        <v>2658.794981358446</v>
       </c>
       <c r="R18" t="n">
-        <v>2635.930294694505</v>
+        <v>2635.930294694504</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.939130505921</v>
+        <v>2485.93913050592</v>
       </c>
       <c r="T18" t="n">
         <v>2288.836044660797</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>435.2938230422175</v>
+        <v>435.2938230422186</v>
       </c>
       <c r="C19" t="n">
-        <v>351.3833610430406</v>
+        <v>351.3833610430418</v>
       </c>
       <c r="D19" t="n">
-        <v>286.2924425594349</v>
+        <v>286.2924425594361</v>
       </c>
       <c r="E19" t="n">
-        <v>223.4050699057718</v>
+        <v>223.4050699057731</v>
       </c>
       <c r="F19" t="n">
-        <v>161.5408433365915</v>
+        <v>161.5408433365928</v>
       </c>
       <c r="G19" t="n">
-        <v>142.2236014876801</v>
+        <v>161.5408433365928</v>
       </c>
       <c r="H19" t="n">
-        <v>72.78425133386632</v>
+        <v>112.9819593922391</v>
       </c>
       <c r="I19" t="n">
         <v>72.78425133386632</v>
       </c>
       <c r="J19" t="n">
-        <v>136.9590645810882</v>
+        <v>136.9590645810881</v>
       </c>
       <c r="K19" t="n">
         <v>318.6456591397331</v>
       </c>
       <c r="L19" t="n">
-        <v>583.3636345214218</v>
+        <v>583.3636345214219</v>
       </c>
       <c r="M19" t="n">
-        <v>868.3307435601855</v>
+        <v>868.330743560186</v>
       </c>
       <c r="N19" t="n">
         <v>1153.938077442645</v>
@@ -5692,31 +5692,31 @@
         <v>1614.063662983438</v>
       </c>
       <c r="Q19" t="n">
-        <v>1698.87327744989</v>
+        <v>1698.873277449891</v>
       </c>
       <c r="R19" t="n">
-        <v>1652.356848140456</v>
+        <v>1652.356848140457</v>
       </c>
       <c r="S19" t="n">
-        <v>1529.529819656882</v>
+        <v>1529.529819656883</v>
       </c>
       <c r="T19" t="n">
-        <v>1388.825217976009</v>
+        <v>1388.82521797601</v>
       </c>
       <c r="U19" t="n">
-        <v>1184.697471513202</v>
+        <v>1184.697471513203</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.038704236045</v>
+        <v>1015.038704236046</v>
       </c>
       <c r="W19" t="n">
-        <v>810.6472551278148</v>
+        <v>810.6472551278157</v>
       </c>
       <c r="X19" t="n">
-        <v>667.6834251585275</v>
+        <v>667.6834251585284</v>
       </c>
       <c r="Y19" t="n">
-        <v>531.9165669437272</v>
+        <v>531.9165669437282</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1859.237724490536</v>
+        <v>1859.237724490535</v>
       </c>
       <c r="C20" t="n">
-        <v>1575.300928478854</v>
+        <v>1575.300928478853</v>
       </c>
       <c r="D20" t="n">
-        <v>1302.060950800834</v>
+        <v>1302.060950800833</v>
       </c>
       <c r="E20" t="n">
-        <v>1001.29841913132</v>
+        <v>1001.298419131318</v>
       </c>
       <c r="F20" t="n">
-        <v>675.3382352704422</v>
+        <v>675.338235270441</v>
       </c>
       <c r="G20" t="n">
-        <v>343.2234112046352</v>
+        <v>343.2234112046346</v>
       </c>
       <c r="H20" t="n">
         <v>109.4856554667644</v>
@@ -5753,7 +5753,7 @@
         <v>257.0350535177267</v>
       </c>
       <c r="K20" t="n">
-        <v>653.9240481457682</v>
+        <v>653.9240481457678</v>
       </c>
       <c r="L20" t="n">
         <v>1198.576568849669</v>
@@ -5768,7 +5768,7 @@
         <v>2977.742436950446</v>
       </c>
       <c r="P20" t="n">
-        <v>3399.621054352557</v>
+        <v>3399.621054352558</v>
       </c>
       <c r="Q20" t="n">
         <v>3639.212566693316</v>
@@ -5786,16 +5786,16 @@
         <v>3268.145592761583</v>
       </c>
       <c r="V20" t="n">
-        <v>3022.108426346743</v>
+        <v>3022.108426346742</v>
       </c>
       <c r="W20" t="n">
-        <v>2754.365492005359</v>
+        <v>2754.365492005358</v>
       </c>
       <c r="X20" t="n">
-        <v>2465.925454673009</v>
+        <v>2465.925454673008</v>
       </c>
       <c r="Y20" t="n">
-        <v>2160.811843625927</v>
+        <v>2160.811843625926</v>
       </c>
     </row>
     <row r="21">
@@ -5832,31 +5832,31 @@
         <v>72.78425133386632</v>
       </c>
       <c r="K21" t="n">
-        <v>135.924130376884</v>
+        <v>135.9241303768841</v>
       </c>
       <c r="L21" t="n">
-        <v>267.1460308504127</v>
+        <v>485.8104604076859</v>
       </c>
       <c r="M21" t="n">
-        <v>804.0669692543331</v>
+        <v>1119.34511020787</v>
       </c>
       <c r="N21" t="n">
-        <v>1470.076409481</v>
+        <v>1785.354550434537</v>
       </c>
       <c r="O21" t="n">
-        <v>2012.929253531777</v>
+        <v>2328.207394485314</v>
       </c>
       <c r="P21" t="n">
-        <v>2431.61345195725</v>
+        <v>2431.613451957249</v>
       </c>
       <c r="Q21" t="n">
-        <v>2658.794981358447</v>
+        <v>2658.794981358446</v>
       </c>
       <c r="R21" t="n">
-        <v>2635.930294694505</v>
+        <v>2635.930294694504</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.939130505921</v>
+        <v>2485.93913050592</v>
       </c>
       <c r="T21" t="n">
         <v>2288.836044660797</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>435.2938230422179</v>
+        <v>435.2938230422189</v>
       </c>
       <c r="C22" t="n">
-        <v>351.383361043041</v>
+        <v>351.3833610430421</v>
       </c>
       <c r="D22" t="n">
-        <v>286.2924425594354</v>
+        <v>286.2924425594364</v>
       </c>
       <c r="E22" t="n">
-        <v>223.4050699057723</v>
+        <v>223.4050699057734</v>
       </c>
       <c r="F22" t="n">
-        <v>161.540843336592</v>
+        <v>161.5408433365932</v>
       </c>
       <c r="G22" t="n">
-        <v>142.22360148768</v>
+        <v>77.93605149173514</v>
       </c>
       <c r="H22" t="n">
-        <v>72.78425133386632</v>
+        <v>77.93605149173514</v>
       </c>
       <c r="I22" t="n">
         <v>72.78425133386632</v>
@@ -5911,34 +5911,34 @@
         <v>136.9590645810882</v>
       </c>
       <c r="K22" t="n">
-        <v>318.6456591397332</v>
+        <v>318.6456591397333</v>
       </c>
       <c r="L22" t="n">
-        <v>583.3636345214219</v>
+        <v>583.3636345214222</v>
       </c>
       <c r="M22" t="n">
-        <v>868.3307435601854</v>
+        <v>868.3307435601863</v>
       </c>
       <c r="N22" t="n">
-        <v>1153.938077442645</v>
+        <v>1153.938077442646</v>
       </c>
       <c r="O22" t="n">
-        <v>1408.087922448271</v>
+        <v>1408.087922448272</v>
       </c>
       <c r="P22" t="n">
         <v>1614.063662983438</v>
       </c>
       <c r="Q22" t="n">
-        <v>1698.87327744989</v>
+        <v>1698.873277449891</v>
       </c>
       <c r="R22" t="n">
         <v>1652.356848140457</v>
       </c>
       <c r="S22" t="n">
-        <v>1529.529819656882</v>
+        <v>1529.529819656883</v>
       </c>
       <c r="T22" t="n">
-        <v>1388.825217976009</v>
+        <v>1388.82521797601</v>
       </c>
       <c r="U22" t="n">
         <v>1184.697471513203</v>
@@ -5947,13 +5947,13 @@
         <v>1015.038704236046</v>
       </c>
       <c r="W22" t="n">
-        <v>810.6472551278151</v>
+        <v>810.6472551278159</v>
       </c>
       <c r="X22" t="n">
-        <v>667.6834251585278</v>
+        <v>667.6834251585285</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.9165669437275</v>
+        <v>531.9165669437285</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1001.298419131319</v>
       </c>
       <c r="F23" t="n">
-        <v>675.3382352704413</v>
+        <v>675.3382352704411</v>
       </c>
       <c r="G23" t="n">
-        <v>343.2234112046348</v>
+        <v>343.2234112046347</v>
       </c>
       <c r="H23" t="n">
         <v>109.4856554667644</v>
@@ -5987,25 +5987,25 @@
         <v>72.78425133386632</v>
       </c>
       <c r="J23" t="n">
-        <v>257.0350535177267</v>
+        <v>257.0350535177272</v>
       </c>
       <c r="K23" t="n">
-        <v>653.9240481457682</v>
+        <v>653.9240481457687</v>
       </c>
       <c r="L23" t="n">
         <v>1198.576568849669</v>
       </c>
       <c r="M23" t="n">
-        <v>1821.213986911388</v>
+        <v>1821.213986911389</v>
       </c>
       <c r="N23" t="n">
         <v>2439.294331798913</v>
       </c>
       <c r="O23" t="n">
-        <v>2977.742436950446</v>
+        <v>2977.742436950447</v>
       </c>
       <c r="P23" t="n">
-        <v>3399.621054352557</v>
+        <v>3399.621054352558</v>
       </c>
       <c r="Q23" t="n">
         <v>3639.212566693316</v>
@@ -6014,10 +6014,10 @@
         <v>3639.212566693316</v>
       </c>
       <c r="S23" t="n">
-        <v>3566.820907993282</v>
+        <v>3566.820907993283</v>
       </c>
       <c r="T23" t="n">
-        <v>3436.815796146178</v>
+        <v>3436.815796146179</v>
       </c>
       <c r="U23" t="n">
         <v>3268.145592761583</v>
@@ -6069,19 +6069,19 @@
         <v>72.78425133386632</v>
       </c>
       <c r="K24" t="n">
-        <v>397.7447150193369</v>
+        <v>135.924130376884</v>
       </c>
       <c r="L24" t="n">
-        <v>631.5803325666485</v>
+        <v>634.2779727008373</v>
       </c>
       <c r="M24" t="n">
-        <v>804.0669692543331</v>
+        <v>1119.345110207871</v>
       </c>
       <c r="N24" t="n">
-        <v>1470.076409481</v>
+        <v>1785.354550434538</v>
       </c>
       <c r="O24" t="n">
-        <v>2012.929253531777</v>
+        <v>2328.207394485315</v>
       </c>
       <c r="P24" t="n">
         <v>2431.61345195725</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>435.2938230422177</v>
+        <v>470.3397309427228</v>
       </c>
       <c r="C25" t="n">
-        <v>351.3833610430408</v>
+        <v>386.4292689435459</v>
       </c>
       <c r="D25" t="n">
-        <v>286.2924425594352</v>
+        <v>321.3383504599403</v>
       </c>
       <c r="E25" t="n">
-        <v>223.4050699057721</v>
+        <v>258.4509778062773</v>
       </c>
       <c r="F25" t="n">
-        <v>161.5408433365918</v>
+        <v>196.586751237097</v>
       </c>
       <c r="G25" t="n">
-        <v>77.93605149173355</v>
+        <v>112.9819593922391</v>
       </c>
       <c r="H25" t="n">
-        <v>77.93605149173355</v>
+        <v>112.9819593922391</v>
       </c>
       <c r="I25" t="n">
         <v>72.78425133386632</v>
@@ -6148,13 +6148,13 @@
         <v>136.9590645810882</v>
       </c>
       <c r="K25" t="n">
-        <v>318.6456591397331</v>
+        <v>318.6456591397333</v>
       </c>
       <c r="L25" t="n">
-        <v>583.3636345214218</v>
+        <v>583.3636345214219</v>
       </c>
       <c r="M25" t="n">
-        <v>868.3307435601855</v>
+        <v>868.3307435601857</v>
       </c>
       <c r="N25" t="n">
         <v>1153.938077442645</v>
@@ -6169,28 +6169,28 @@
         <v>1698.87327744989</v>
       </c>
       <c r="R25" t="n">
-        <v>1652.356848140457</v>
+        <v>1687.402756040961</v>
       </c>
       <c r="S25" t="n">
-        <v>1529.529819656883</v>
+        <v>1564.575727557387</v>
       </c>
       <c r="T25" t="n">
-        <v>1388.825217976009</v>
+        <v>1423.871125876514</v>
       </c>
       <c r="U25" t="n">
-        <v>1184.697471513202</v>
+        <v>1219.743379413707</v>
       </c>
       <c r="V25" t="n">
-        <v>1015.038704236046</v>
+        <v>1050.08461213655</v>
       </c>
       <c r="W25" t="n">
-        <v>810.647255127815</v>
+        <v>845.6931630283198</v>
       </c>
       <c r="X25" t="n">
-        <v>667.6834251585276</v>
+        <v>702.7293330590323</v>
       </c>
       <c r="Y25" t="n">
-        <v>531.9165669437274</v>
+        <v>566.9624748442324</v>
       </c>
     </row>
     <row r="26">
@@ -6306,16 +6306,16 @@
         <v>72.78425133386631</v>
       </c>
       <c r="K27" t="n">
-        <v>135.924130376884</v>
+        <v>397.7447150193368</v>
       </c>
       <c r="L27" t="n">
-        <v>267.1460308504127</v>
+        <v>896.0985573432901</v>
       </c>
       <c r="M27" t="n">
-        <v>804.0669692543331</v>
+        <v>1193.990665338295</v>
       </c>
       <c r="N27" t="n">
-        <v>1470.076409481</v>
+        <v>1860.000105564962</v>
       </c>
       <c r="O27" t="n">
         <v>2012.929253531777</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>509.10071433115</v>
+        <v>509.1007143311499</v>
       </c>
       <c r="C28" t="n">
-        <v>429.5728761555998</v>
+        <v>429.5728761555997</v>
       </c>
       <c r="D28" t="n">
-        <v>368.8645814956208</v>
+        <v>368.8645814956207</v>
       </c>
       <c r="E28" t="n">
         <v>310.3598326655843</v>
@@ -6373,7 +6373,7 @@
         <v>252.8782299200307</v>
       </c>
       <c r="G28" t="n">
-        <v>173.6560618987995</v>
+        <v>173.6560618987994</v>
       </c>
       <c r="H28" t="n">
         <v>108.5993355686124</v>
@@ -6388,13 +6388,13 @@
         <v>327.2364783588062</v>
       </c>
       <c r="L28" t="n">
-        <v>596.2498633500314</v>
+        <v>596.2498633500313</v>
       </c>
       <c r="M28" t="n">
-        <v>885.5123819983318</v>
+        <v>885.5123819983316</v>
       </c>
       <c r="N28" t="n">
-        <v>1175.415125490328</v>
+        <v>1175.415125490327</v>
       </c>
       <c r="O28" t="n">
         <v>1433.86038010549</v>
@@ -6543,16 +6543,16 @@
         <v>72.78425133386632</v>
       </c>
       <c r="K30" t="n">
-        <v>135.924130376884</v>
+        <v>397.7447150193369</v>
       </c>
       <c r="L30" t="n">
-        <v>267.1460308504127</v>
+        <v>896.0985573432902</v>
       </c>
       <c r="M30" t="n">
-        <v>804.0669692543331</v>
+        <v>1529.633207143474</v>
       </c>
       <c r="N30" t="n">
-        <v>1470.076409481</v>
+        <v>1721.093696770023</v>
       </c>
       <c r="O30" t="n">
         <v>2012.929253531777</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435.2938230422192</v>
+        <v>539.7790810965362</v>
       </c>
       <c r="C31" t="n">
-        <v>351.3833610430424</v>
+        <v>455.8686190973594</v>
       </c>
       <c r="D31" t="n">
-        <v>286.2924425594368</v>
+        <v>390.7777006137538</v>
       </c>
       <c r="E31" t="n">
-        <v>223.4050699057739</v>
+        <v>327.8903279600909</v>
       </c>
       <c r="F31" t="n">
-        <v>161.5408433365936</v>
+        <v>266.0261013909106</v>
       </c>
       <c r="G31" t="n">
-        <v>142.22360148768</v>
+        <v>182.4213095460527</v>
       </c>
       <c r="H31" t="n">
-        <v>72.78425133386632</v>
+        <v>112.981959392239</v>
       </c>
       <c r="I31" t="n">
         <v>72.78425133386632</v>
@@ -6625,7 +6625,7 @@
         <v>318.6456591397333</v>
       </c>
       <c r="L31" t="n">
-        <v>583.363634521422</v>
+        <v>583.3636345214219</v>
       </c>
       <c r="M31" t="n">
         <v>868.3307435601859</v>
@@ -6646,7 +6646,7 @@
         <v>1652.356848140457</v>
       </c>
       <c r="S31" t="n">
-        <v>1529.529819656883</v>
+        <v>1529.529819656884</v>
       </c>
       <c r="T31" t="n">
         <v>1388.82521797601</v>
@@ -6658,13 +6658,13 @@
         <v>1015.038704236047</v>
       </c>
       <c r="W31" t="n">
-        <v>810.6472551278162</v>
+        <v>810.647255127816</v>
       </c>
       <c r="X31" t="n">
         <v>667.6834251585288</v>
       </c>
       <c r="Y31" t="n">
-        <v>531.9165669437289</v>
+        <v>636.4018249980458</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1828.559357725148</v>
+        <v>1894.298715079547</v>
       </c>
       <c r="C32" t="n">
-        <v>1549.005185537093</v>
+        <v>1614.744542891492</v>
       </c>
       <c r="D32" t="n">
-        <v>1280.1478316827</v>
+        <v>1345.887189037099</v>
       </c>
       <c r="E32" t="n">
-        <v>983.7679238368121</v>
+        <v>1049.507281191211</v>
       </c>
       <c r="F32" t="n">
-        <v>662.1903637995613</v>
+        <v>662.1903637995612</v>
       </c>
       <c r="G32" t="n">
-        <v>334.4581635573814</v>
+        <v>334.4581635573813</v>
       </c>
       <c r="H32" t="n">
         <v>105.1030316431377</v>
@@ -6698,19 +6698,19 @@
         <v>72.78425133386632</v>
       </c>
       <c r="J32" t="n">
-        <v>257.0350535177263</v>
+        <v>257.0350535177267</v>
       </c>
       <c r="K32" t="n">
-        <v>653.9240481457676</v>
+        <v>653.9240481457682</v>
       </c>
       <c r="L32" t="n">
-        <v>1198.576568849668</v>
+        <v>1198.576568849669</v>
       </c>
       <c r="M32" t="n">
         <v>1821.213986911388</v>
       </c>
       <c r="N32" t="n">
-        <v>2439.294331798912</v>
+        <v>2439.294331798913</v>
       </c>
       <c r="O32" t="n">
         <v>2977.742436950446</v>
@@ -6731,19 +6731,19 @@
         <v>3445.581043793431</v>
       </c>
       <c r="U32" t="n">
-        <v>3215.554106878064</v>
+        <v>3281.293464232462</v>
       </c>
       <c r="V32" t="n">
-        <v>2973.899564286849</v>
+        <v>3039.638921641248</v>
       </c>
       <c r="W32" t="n">
-        <v>2710.539253769092</v>
+        <v>2776.27861112349</v>
       </c>
       <c r="X32" t="n">
-        <v>2426.481840260369</v>
+        <v>2492.221197614767</v>
       </c>
       <c r="Y32" t="n">
-        <v>2125.750853036914</v>
+        <v>2191.490210391312</v>
       </c>
     </row>
     <row r="33">
@@ -6780,31 +6780,31 @@
         <v>72.78425133386632</v>
       </c>
       <c r="K33" t="n">
-        <v>135.9241303768841</v>
+        <v>135.924130376884</v>
       </c>
       <c r="L33" t="n">
-        <v>267.1460308504128</v>
+        <v>634.2779727008373</v>
       </c>
       <c r="M33" t="n">
-        <v>804.0669692543327</v>
+        <v>806.7646093885219</v>
       </c>
       <c r="N33" t="n">
-        <v>1470.076409481</v>
+        <v>1472.774049615189</v>
       </c>
       <c r="O33" t="n">
         <v>2012.929253531777</v>
       </c>
       <c r="P33" t="n">
-        <v>2431.613451957249</v>
+        <v>2431.61345195725</v>
       </c>
       <c r="Q33" t="n">
-        <v>2658.794981358446</v>
+        <v>2658.794981358447</v>
       </c>
       <c r="R33" t="n">
-        <v>2635.930294694504</v>
+        <v>2635.930294694505</v>
       </c>
       <c r="S33" t="n">
-        <v>2485.93913050592</v>
+        <v>2485.939130505921</v>
       </c>
       <c r="T33" t="n">
         <v>2288.836044660797</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>509.1007143311504</v>
+        <v>509.1007143311503</v>
       </c>
       <c r="C34" t="n">
-        <v>429.5728761556002</v>
+        <v>429.5728761556001</v>
       </c>
       <c r="D34" t="n">
         <v>368.8645814956211</v>
@@ -6844,13 +6844,13 @@
         <v>310.3598326655847</v>
       </c>
       <c r="F34" t="n">
-        <v>252.878229920031</v>
+        <v>252.8782299200311</v>
       </c>
       <c r="G34" t="n">
-        <v>173.6560618987997</v>
+        <v>173.6560618987995</v>
       </c>
       <c r="H34" t="n">
-        <v>108.5993355686126</v>
+        <v>108.5993355686124</v>
       </c>
       <c r="I34" t="n">
         <v>72.78425133386632</v>
@@ -6865,10 +6865,10 @@
         <v>596.2498633500313</v>
       </c>
       <c r="M34" t="n">
-        <v>885.5123819983316</v>
+        <v>885.5123819983315</v>
       </c>
       <c r="N34" t="n">
-        <v>1175.415125490328</v>
+        <v>1175.415125490327</v>
       </c>
       <c r="O34" t="n">
         <v>1433.86038010549</v>
@@ -6880,28 +6880,28 @@
         <v>1733.236554326182</v>
       </c>
       <c r="R34" t="n">
-        <v>1691.102748840376</v>
+        <v>1691.102748840375</v>
       </c>
       <c r="S34" t="n">
         <v>1572.658344180428</v>
       </c>
       <c r="T34" t="n">
-        <v>1436.336366323182</v>
+        <v>1436.336366323181</v>
       </c>
       <c r="U34" t="n">
-        <v>1236.591243684002</v>
+        <v>1236.591243684001</v>
       </c>
       <c r="V34" t="n">
         <v>1071.315100230471</v>
       </c>
       <c r="W34" t="n">
-        <v>871.3062749458675</v>
+        <v>871.3062749458674</v>
       </c>
       <c r="X34" t="n">
-        <v>732.7250688002068</v>
+        <v>732.7250688002067</v>
       </c>
       <c r="Y34" t="n">
-        <v>601.3408344090334</v>
+        <v>601.3408344090333</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1828.559357725148</v>
+        <v>1894.298715079547</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.005185537093</v>
+        <v>1614.744542891492</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.147831682699</v>
+        <v>1345.887189037099</v>
       </c>
       <c r="E35" t="n">
         <v>983.767923836812</v>
@@ -6932,13 +6932,13 @@
         <v>105.1030316431377</v>
       </c>
       <c r="I35" t="n">
-        <v>72.78425133386631</v>
+        <v>72.78425133386632</v>
       </c>
       <c r="J35" t="n">
-        <v>257.0350535177261</v>
+        <v>257.0350535177267</v>
       </c>
       <c r="K35" t="n">
-        <v>653.9240481457674</v>
+        <v>653.924048145768</v>
       </c>
       <c r="L35" t="n">
         <v>1198.576568849668</v>
@@ -6950,37 +6950,37 @@
         <v>2439.294331798912</v>
       </c>
       <c r="O35" t="n">
-        <v>2977.742436950445</v>
+        <v>2977.742436950446</v>
       </c>
       <c r="P35" t="n">
         <v>3399.621054352557</v>
       </c>
       <c r="Q35" t="n">
-        <v>3639.212566693315</v>
+        <v>3639.212566693316</v>
       </c>
       <c r="R35" t="n">
-        <v>3639.212566693315</v>
+        <v>3639.212566693316</v>
       </c>
       <c r="S35" t="n">
-        <v>3505.46417446251</v>
+        <v>3571.203531816909</v>
       </c>
       <c r="T35" t="n">
-        <v>3379.841686439032</v>
+        <v>3445.581043793431</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.554106878063</v>
+        <v>3281.293464232462</v>
       </c>
       <c r="V35" t="n">
-        <v>2973.899564286849</v>
+        <v>3039.638921641248</v>
       </c>
       <c r="W35" t="n">
-        <v>2710.539253769091</v>
+        <v>2776.27861112349</v>
       </c>
       <c r="X35" t="n">
-        <v>2426.481840260368</v>
+        <v>2492.221197614767</v>
       </c>
       <c r="Y35" t="n">
-        <v>2125.750853036913</v>
+        <v>2191.490210391312</v>
       </c>
     </row>
     <row r="36">
@@ -6990,40 +6990,40 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4787989308451</v>
+        <v>987.4787989308453</v>
       </c>
       <c r="C36" t="n">
-        <v>813.0257696497181</v>
+        <v>813.0257696497183</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0913599884668</v>
+        <v>664.091359988467</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8539049830114</v>
+        <v>504.8539049830115</v>
       </c>
       <c r="F36" t="n">
         <v>358.3193470098964</v>
       </c>
       <c r="G36" t="n">
-        <v>220.8497185517209</v>
+        <v>220.849718551721</v>
       </c>
       <c r="H36" t="n">
         <v>119.6610904337666</v>
       </c>
       <c r="I36" t="n">
-        <v>72.78425133386631</v>
+        <v>72.78425133386632</v>
       </c>
       <c r="J36" t="n">
-        <v>72.78425133386631</v>
+        <v>72.78425133386632</v>
       </c>
       <c r="K36" t="n">
-        <v>135.9241303768841</v>
+        <v>135.924130376884</v>
       </c>
       <c r="L36" t="n">
-        <v>267.1460308504128</v>
+        <v>267.1460308504127</v>
       </c>
       <c r="M36" t="n">
-        <v>804.0669692543327</v>
+        <v>804.0669692543331</v>
       </c>
       <c r="N36" t="n">
         <v>1470.076409481</v>
@@ -7032,16 +7032,16 @@
         <v>2012.929253531777</v>
       </c>
       <c r="P36" t="n">
-        <v>2431.613451957249</v>
+        <v>2431.61345195725</v>
       </c>
       <c r="Q36" t="n">
-        <v>2658.794981358446</v>
+        <v>2658.794981358447</v>
       </c>
       <c r="R36" t="n">
-        <v>2635.930294694504</v>
+        <v>2635.930294694505</v>
       </c>
       <c r="S36" t="n">
-        <v>2485.93913050592</v>
+        <v>2485.939130505921</v>
       </c>
       <c r="T36" t="n">
         <v>2288.836044660797</v>
@@ -7050,7 +7050,7 @@
         <v>2060.695399881344</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.543291649601</v>
+        <v>1825.543291649602</v>
       </c>
       <c r="W36" t="n">
         <v>1571.3059349214</v>
@@ -7069,43 +7069,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>509.10071433115</v>
+        <v>509.1007143311501</v>
       </c>
       <c r="C37" t="n">
-        <v>429.5728761555998</v>
+        <v>429.5728761556</v>
       </c>
       <c r="D37" t="n">
-        <v>368.8645814956208</v>
+        <v>368.864581495621</v>
       </c>
       <c r="E37" t="n">
-        <v>310.3598326655844</v>
+        <v>310.3598326655846</v>
       </c>
       <c r="F37" t="n">
-        <v>252.8782299200308</v>
+        <v>252.8782299200309</v>
       </c>
       <c r="G37" t="n">
-        <v>173.6560618987995</v>
+        <v>173.6560618987996</v>
       </c>
       <c r="H37" t="n">
-        <v>108.5993355686124</v>
+        <v>108.5993355686126</v>
       </c>
       <c r="I37" t="n">
-        <v>72.78425133386631</v>
+        <v>72.78425133386632</v>
       </c>
       <c r="J37" t="n">
         <v>141.2544741906247</v>
       </c>
       <c r="K37" t="n">
-        <v>327.2364783588062</v>
+        <v>327.236478358806</v>
       </c>
       <c r="L37" t="n">
-        <v>596.2498633500313</v>
+        <v>596.2498633500312</v>
       </c>
       <c r="M37" t="n">
-        <v>885.5123819983316</v>
+        <v>885.5123819983315</v>
       </c>
       <c r="N37" t="n">
-        <v>1175.415125490328</v>
+        <v>1175.415125490327</v>
       </c>
       <c r="O37" t="n">
         <v>1433.86038010549</v>
@@ -7132,10 +7132,10 @@
         <v>1071.315100230471</v>
       </c>
       <c r="W37" t="n">
-        <v>871.3062749458674</v>
+        <v>871.306274945867</v>
       </c>
       <c r="X37" t="n">
-        <v>732.7250688002067</v>
+        <v>732.7250688002064</v>
       </c>
       <c r="Y37" t="n">
         <v>601.3408344090331</v>
@@ -7172,10 +7172,10 @@
         <v>72.78425133386631</v>
       </c>
       <c r="J38" t="n">
-        <v>257.0350535177266</v>
+        <v>257.0350535177265</v>
       </c>
       <c r="K38" t="n">
-        <v>653.9240481457679</v>
+        <v>653.9240481457678</v>
       </c>
       <c r="L38" t="n">
         <v>1198.576568849668</v>
@@ -7196,28 +7196,28 @@
         <v>3639.212566693315</v>
       </c>
       <c r="R38" t="n">
-        <v>3639.212566693315</v>
+        <v>3635.898178386274</v>
       </c>
       <c r="S38" t="n">
-        <v>3571.203531816908</v>
+        <v>3567.889143509867</v>
       </c>
       <c r="T38" t="n">
-        <v>3445.581043793431</v>
+        <v>3442.26665548639</v>
       </c>
       <c r="U38" t="n">
-        <v>3281.293464232462</v>
+        <v>3277.979075925421</v>
       </c>
       <c r="V38" t="n">
-        <v>3039.638921641248</v>
+        <v>3036.324533334207</v>
       </c>
       <c r="W38" t="n">
-        <v>2776.27861112349</v>
+        <v>2772.964222816449</v>
       </c>
       <c r="X38" t="n">
-        <v>2492.221197614767</v>
+        <v>2488.906809307726</v>
       </c>
       <c r="Y38" t="n">
-        <v>2191.490210391312</v>
+        <v>2125.750853036913</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>72.78425133386631</v>
       </c>
       <c r="J39" t="n">
-        <v>72.78425133386631</v>
+        <v>184.147054796093</v>
       </c>
       <c r="K39" t="n">
-        <v>135.924130376884</v>
+        <v>247.2869338391107</v>
       </c>
       <c r="L39" t="n">
-        <v>267.1460308504127</v>
+        <v>378.5088343126394</v>
       </c>
       <c r="M39" t="n">
-        <v>804.0669692543331</v>
+        <v>1012.043484112824</v>
       </c>
       <c r="N39" t="n">
-        <v>1470.076409481</v>
+        <v>1678.052924339491</v>
       </c>
       <c r="O39" t="n">
-        <v>2012.929253531777</v>
+        <v>2220.905768390267</v>
       </c>
       <c r="P39" t="n">
-        <v>2431.61345195725</v>
+        <v>2639.58996681574</v>
       </c>
       <c r="Q39" t="n">
         <v>2658.794981358447</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>509.1007143311498</v>
+        <v>509.10071433115</v>
       </c>
       <c r="C40" t="n">
-        <v>429.5728761555997</v>
+        <v>429.5728761555998</v>
       </c>
       <c r="D40" t="n">
-        <v>368.8645814956207</v>
+        <v>368.8645814956208</v>
       </c>
       <c r="E40" t="n">
-        <v>310.3598326655842</v>
+        <v>310.3598326655844</v>
       </c>
       <c r="F40" t="n">
-        <v>252.8782299200306</v>
+        <v>252.8782299200308</v>
       </c>
       <c r="G40" t="n">
-        <v>173.6560618987994</v>
+        <v>173.6560618987995</v>
       </c>
       <c r="H40" t="n">
         <v>108.5993355686124</v>
@@ -7330,19 +7330,19 @@
         <v>72.78425133386631</v>
       </c>
       <c r="J40" t="n">
-        <v>141.2544741906247</v>
+        <v>141.2544741906246</v>
       </c>
       <c r="K40" t="n">
-        <v>327.2364783588062</v>
+        <v>327.236478358806</v>
       </c>
       <c r="L40" t="n">
-        <v>596.2498633500313</v>
+        <v>596.2498633500312</v>
       </c>
       <c r="M40" t="n">
-        <v>885.5123819983315</v>
+        <v>885.5123819983316</v>
       </c>
       <c r="N40" t="n">
-        <v>1175.415125490327</v>
+        <v>1175.415125490328</v>
       </c>
       <c r="O40" t="n">
         <v>1433.86038010549</v>
@@ -7369,13 +7369,13 @@
         <v>1071.315100230471</v>
       </c>
       <c r="W40" t="n">
-        <v>871.3062749458669</v>
+        <v>871.306274945867</v>
       </c>
       <c r="X40" t="n">
-        <v>732.7250688002063</v>
+        <v>732.7250688002064</v>
       </c>
       <c r="Y40" t="n">
-        <v>601.3408344090328</v>
+        <v>601.3408344090329</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1828.559357725148</v>
+        <v>1894.298715079547</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.005185537093</v>
+        <v>1614.744542891492</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.1478316827</v>
+        <v>1280.147831682699</v>
       </c>
       <c r="E41" t="n">
-        <v>983.7679238368121</v>
+        <v>983.767923836812</v>
       </c>
       <c r="F41" t="n">
-        <v>662.1903637995613</v>
+        <v>662.1903637995612</v>
       </c>
       <c r="G41" t="n">
-        <v>334.4581635573815</v>
+        <v>334.4581635573813</v>
       </c>
       <c r="H41" t="n">
-        <v>105.1030316431378</v>
+        <v>105.1030316431377</v>
       </c>
       <c r="I41" t="n">
         <v>72.78425133386631</v>
       </c>
       <c r="J41" t="n">
-        <v>257.0350535177265</v>
+        <v>257.0350535177266</v>
       </c>
       <c r="K41" t="n">
-        <v>653.9240481457678</v>
+        <v>653.9240481457679</v>
       </c>
       <c r="L41" t="n">
         <v>1198.576568849668</v>
@@ -7442,19 +7442,19 @@
         <v>3445.581043793431</v>
       </c>
       <c r="U41" t="n">
-        <v>3281.293464232461</v>
+        <v>3281.293464232462</v>
       </c>
       <c r="V41" t="n">
-        <v>3039.638921641247</v>
+        <v>3039.638921641248</v>
       </c>
       <c r="W41" t="n">
-        <v>2710.539253769092</v>
+        <v>2776.27861112349</v>
       </c>
       <c r="X41" t="n">
-        <v>2426.481840260369</v>
+        <v>2492.221197614767</v>
       </c>
       <c r="Y41" t="n">
-        <v>2125.750853036914</v>
+        <v>2191.490210391312</v>
       </c>
     </row>
     <row r="42">
@@ -7494,16 +7494,16 @@
         <v>135.924130376884</v>
       </c>
       <c r="L42" t="n">
-        <v>267.1460308504127</v>
+        <v>634.2779727008373</v>
       </c>
       <c r="M42" t="n">
-        <v>804.0669692543331</v>
+        <v>1267.812622501022</v>
       </c>
       <c r="N42" t="n">
-        <v>1470.076409481</v>
+        <v>1785.354550434538</v>
       </c>
       <c r="O42" t="n">
-        <v>2012.929253531777</v>
+        <v>2328.207394485315</v>
       </c>
       <c r="P42" t="n">
         <v>2431.61345195725</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>509.1007143311504</v>
+        <v>509.10071433115</v>
       </c>
       <c r="C43" t="n">
-        <v>429.5728761556001</v>
+        <v>429.5728761555998</v>
       </c>
       <c r="D43" t="n">
-        <v>368.8645814956211</v>
+        <v>368.8645814956208</v>
       </c>
       <c r="E43" t="n">
-        <v>310.3598326655846</v>
+        <v>310.3598326655844</v>
       </c>
       <c r="F43" t="n">
-        <v>252.8782299200309</v>
+        <v>252.8782299200307</v>
       </c>
       <c r="G43" t="n">
-        <v>173.6560618987996</v>
+        <v>173.6560618987995</v>
       </c>
       <c r="H43" t="n">
-        <v>108.5993355686125</v>
+        <v>108.5993355686124</v>
       </c>
       <c r="I43" t="n">
         <v>72.78425133386631</v>
@@ -7570,16 +7570,16 @@
         <v>141.2544741906246</v>
       </c>
       <c r="K43" t="n">
-        <v>327.236478358806</v>
+        <v>327.2364783588062</v>
       </c>
       <c r="L43" t="n">
-        <v>596.2498633500311</v>
+        <v>596.2498633500313</v>
       </c>
       <c r="M43" t="n">
         <v>885.5123819983313</v>
       </c>
       <c r="N43" t="n">
-        <v>1175.415125490328</v>
+        <v>1175.415125490327</v>
       </c>
       <c r="O43" t="n">
         <v>1433.86038010549</v>
@@ -7600,19 +7600,19 @@
         <v>1436.336366323181</v>
       </c>
       <c r="U43" t="n">
-        <v>1236.591243684002</v>
+        <v>1236.591243684001</v>
       </c>
       <c r="V43" t="n">
         <v>1071.315100230471</v>
       </c>
       <c r="W43" t="n">
-        <v>871.3062749458675</v>
+        <v>871.306274945867</v>
       </c>
       <c r="X43" t="n">
-        <v>732.7250688002068</v>
+        <v>732.7250688002064</v>
       </c>
       <c r="Y43" t="n">
-        <v>601.3408344090334</v>
+        <v>601.3408344090331</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1828.559357725148</v>
+        <v>1894.298715079547</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.005185537093</v>
+        <v>1614.744542891492</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.1478316827</v>
+        <v>1345.887189037098</v>
       </c>
       <c r="E44" t="n">
-        <v>983.7679238368121</v>
+        <v>1049.50728119121</v>
       </c>
       <c r="F44" t="n">
-        <v>662.1903637995613</v>
+        <v>727.9297211539597</v>
       </c>
       <c r="G44" t="n">
-        <v>334.4581635573814</v>
+        <v>334.4581635573813</v>
       </c>
       <c r="H44" t="n">
         <v>105.1030316431377</v>
@@ -7676,22 +7676,22 @@
         <v>3571.203531816908</v>
       </c>
       <c r="T44" t="n">
-        <v>3379.841686439033</v>
+        <v>3445.581043793431</v>
       </c>
       <c r="U44" t="n">
-        <v>3215.554106878064</v>
+        <v>3281.293464232462</v>
       </c>
       <c r="V44" t="n">
-        <v>2973.899564286849</v>
+        <v>3039.638921641248</v>
       </c>
       <c r="W44" t="n">
-        <v>2710.539253769092</v>
+        <v>2776.27861112349</v>
       </c>
       <c r="X44" t="n">
-        <v>2426.481840260369</v>
+        <v>2492.221197614767</v>
       </c>
       <c r="Y44" t="n">
-        <v>2125.750853036914</v>
+        <v>2191.490210391312</v>
       </c>
     </row>
     <row r="45">
@@ -7725,16 +7725,16 @@
         <v>72.78425133386631</v>
       </c>
       <c r="J45" t="n">
-        <v>72.78425133386631</v>
+        <v>188.8293871872112</v>
       </c>
       <c r="K45" t="n">
-        <v>135.924130376884</v>
+        <v>513.7898508726817</v>
       </c>
       <c r="L45" t="n">
-        <v>267.1460308504127</v>
+        <v>645.0117513462103</v>
       </c>
       <c r="M45" t="n">
-        <v>804.0669692543331</v>
+        <v>1278.546401146395</v>
       </c>
       <c r="N45" t="n">
         <v>1470.076409481</v>
@@ -7780,43 +7780,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>509.1007143311501</v>
+        <v>509.10071433115</v>
       </c>
       <c r="C46" t="n">
-        <v>429.5728761555999</v>
+        <v>429.5728761555998</v>
       </c>
       <c r="D46" t="n">
-        <v>368.8645814956209</v>
+        <v>368.8645814956208</v>
       </c>
       <c r="E46" t="n">
-        <v>310.3598326655845</v>
+        <v>310.3598326655844</v>
       </c>
       <c r="F46" t="n">
-        <v>252.8782299200309</v>
+        <v>252.8782299200308</v>
       </c>
       <c r="G46" t="n">
-        <v>173.6560618987996</v>
+        <v>173.6560618987995</v>
       </c>
       <c r="H46" t="n">
-        <v>108.5993355686125</v>
+        <v>108.5993355686124</v>
       </c>
       <c r="I46" t="n">
         <v>72.78425133386631</v>
       </c>
       <c r="J46" t="n">
-        <v>141.2544741906247</v>
+        <v>141.2544741906246</v>
       </c>
       <c r="K46" t="n">
-        <v>327.2364783588062</v>
+        <v>327.2364783588061</v>
       </c>
       <c r="L46" t="n">
-        <v>596.2498633500313</v>
+        <v>596.2498633500312</v>
       </c>
       <c r="M46" t="n">
-        <v>885.5123819983315</v>
+        <v>885.5123819983318</v>
       </c>
       <c r="N46" t="n">
-        <v>1175.415125490327</v>
+        <v>1175.415125490328</v>
       </c>
       <c r="O46" t="n">
         <v>1433.86038010549</v>
@@ -7849,7 +7849,7 @@
         <v>732.7250688002061</v>
       </c>
       <c r="Y46" t="n">
-        <v>601.3408344090332</v>
+        <v>601.3408344090331</v>
       </c>
     </row>
   </sheetData>
@@ -8538,10 +8538,10 @@
         <v>136.8385818314783</v>
       </c>
       <c r="M9" t="n">
-        <v>362.2743407998537</v>
+        <v>384.6945110063436</v>
       </c>
       <c r="N9" t="n">
-        <v>373.8491954283778</v>
+        <v>351.4290252218879</v>
       </c>
       <c r="O9" t="n">
         <v>385.2788254813443</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>8.873726397636219</v>
+        <v>8.87372639763619</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,7 +8775,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>368.1154562790255</v>
+        <v>368.1154562790251</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>8.873726397636219</v>
+        <v>8.87372639763619</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,10 +9015,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>381.7527668725792</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>296.2727118057545</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>8.873726397636247</v>
+        <v>8.873726397636219</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9249,7 +9249,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>368.1154562790261</v>
+        <v>368.1154562790255</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>8.873726397636247</v>
+        <v>8.873726397636219</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>220.8731611689627</v>
       </c>
       <c r="M21" t="n">
-        <v>368.1154562790261</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,7 +9495,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9717,13 +9717,13 @@
         <v>8.873726397636247</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6502192664475</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>315.7378796155041</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9732,7 +9732,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,19 +9954,19 @@
         <v>8.873726397636247</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>368.1154562790261</v>
+        <v>126.672193239718</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10191,19 +10191,19 @@
         <v>8.873726397636247</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>368.1154562790261</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>140.3095038332718</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,22 +10425,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>8.873726397636219</v>
+        <v>8.873726397636247</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>368.1154562790255</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>391.1374302522966</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720733</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10662,7 +10662,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>8.873726397636219</v>
+        <v>8.873726397636247</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>368.1154562790255</v>
+        <v>368.1154562790261</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>8.873726397636247</v>
+        <v>121.3614066625117</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10908,7 +10908,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>368.1154562790261</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720737</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11142,19 +11142,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>368.1154562790261</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>329.3751902090579</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>8.873726397636247</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>368.1154562790261</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0.07022091722885193</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>379.4525972395098</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>361.9916473470367</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>87.83599551775512</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>403.5948013177406</v>
       </c>
       <c r="G11" t="n">
-        <v>409.6878951206203</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>312.2945974759635</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>68.37424352779249</v>
       </c>
     </row>
     <row r="12">
@@ -23437,7 +23437,7 @@
         <v>120.689950273261</v>
       </c>
       <c r="J13" t="n">
-        <v>16.07117561140944</v>
+        <v>16.07117561140943</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>90.1632235393958</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>90.16322353939583</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>283.2417539126202</v>
@@ -23501,13 +23501,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>345.0449072798714</v>
       </c>
       <c r="F14" t="n">
-        <v>369.9905829493209</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>339.3594309564632</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>175.995061655685</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>188.3100449702297</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>142.9465173895468</v>
+        <v>142.9465173895469</v>
       </c>
       <c r="C16" t="n">
-        <v>130.3613583062373</v>
+        <v>54.40842938137365</v>
       </c>
       <c r="D16" t="n">
         <v>111.7300102258219</v>
       </c>
       <c r="E16" t="n">
-        <v>109.5484998541787</v>
+        <v>109.5484998541788</v>
       </c>
       <c r="F16" t="n">
         <v>108.5355852305408</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0587448534616</v>
+        <v>130.0587448534617</v>
       </c>
       <c r="H16" t="n">
-        <v>116.0349575793278</v>
+        <v>116.0349575793279</v>
       </c>
       <c r="I16" t="n">
-        <v>87.08573190484135</v>
+        <v>87.0857319048414</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>112.871263671782</v>
+        <v>188.8241925966468</v>
       </c>
       <c r="Y16" t="n">
-        <v>181.6991905597043</v>
+        <v>181.6991905597044</v>
       </c>
     </row>
     <row r="17">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>63.64467449598708</v>
+        <v>82.76874392640929</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>20.6716615473656</v>
       </c>
       <c r="I19" t="n">
-        <v>39.79573097778911</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>63.64467449598637</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.74495665227553</v>
       </c>
       <c r="I22" t="n">
-        <v>39.79573097778906</v>
+        <v>34.6954488214989</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>68.7449566522756</v>
+        <v>68.74495665227555</v>
       </c>
       <c r="I25" t="n">
-        <v>34.69544882150035</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>34.69544882149992</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>63.64467449598465</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>39.79573097778901</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>103.4404054737737</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1310564.19899111</v>
+        <v>1310564.198991109</v>
       </c>
     </row>
     <row r="7">
@@ -26372,28 +26372,28 @@
         <v>4248.600615127665</v>
       </c>
       <c r="E3" t="n">
-        <v>664660.9320700821</v>
+        <v>664660.9320700822</v>
       </c>
       <c r="F3" t="n">
-        <v>26883.37469473575</v>
+        <v>26883.37469473569</v>
       </c>
       <c r="G3" t="n">
-        <v>37832.00074164178</v>
+        <v>37832.0007416419</v>
       </c>
       <c r="H3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69155.97620659517</v>
+        <v>69155.97620659509</v>
       </c>
       <c r="K3" t="n">
-        <v>23412.33662642349</v>
+        <v>23412.33662642343</v>
       </c>
       <c r="L3" t="n">
-        <v>42201.11791963231</v>
+        <v>42201.11791963245</v>
       </c>
       <c r="M3" t="n">
         <v>165780.5709622342</v>
@@ -26402,10 +26402,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6096.033607488924</v>
+        <v>6096.033607488915</v>
       </c>
       <c r="P3" t="n">
-        <v>23412.33662642351</v>
+        <v>23412.33662642343</v>
       </c>
     </row>
     <row r="4">
@@ -26424,19 +26424,19 @@
         <v>302915.1537842172</v>
       </c>
       <c r="E4" t="n">
-        <v>28346.83226808674</v>
+        <v>28346.83226808673</v>
       </c>
       <c r="F4" t="n">
-        <v>62304.85287812339</v>
+        <v>62304.85287812331</v>
       </c>
       <c r="G4" t="n">
-        <v>110093.5610913583</v>
+        <v>110093.5610913584</v>
       </c>
       <c r="H4" t="n">
         <v>110093.5610913583</v>
       </c>
       <c r="I4" t="n">
-        <v>110093.5610913583</v>
+        <v>110093.5610913584</v>
       </c>
       <c r="J4" t="n">
         <v>111521.2417232172</v>
@@ -26476,7 +26476,7 @@
         <v>48577.10433863014</v>
       </c>
       <c r="E5" t="n">
-        <v>68246.40034598418</v>
+        <v>68246.40034598421</v>
       </c>
       <c r="F5" t="n">
         <v>71071.47337999886</v>
@@ -26485,10 +26485,10 @@
         <v>75047.09646793522</v>
       </c>
       <c r="H5" t="n">
-        <v>75047.0964679352</v>
+        <v>75047.09646793522</v>
       </c>
       <c r="I5" t="n">
-        <v>75047.0964679352</v>
+        <v>75047.09646793522</v>
       </c>
       <c r="J5" t="n">
         <v>75411.85484214139</v>
@@ -26522,34 +26522,34 @@
         <v>-433278.4961423881</v>
       </c>
       <c r="C6" t="n">
-        <v>-352509.0646108404</v>
+        <v>-352509.0646108403</v>
       </c>
       <c r="D6" t="n">
         <v>-355740.858737975</v>
       </c>
       <c r="E6" t="n">
-        <v>-761254.1646841529</v>
+        <v>-761617.5745162651</v>
       </c>
       <c r="F6" t="n">
-        <v>-160259.700952858</v>
+        <v>-160474.7139171996</v>
       </c>
       <c r="G6" t="n">
-        <v>-222972.6583009353</v>
+        <v>-222978.8647252639</v>
       </c>
       <c r="H6" t="n">
-        <v>-185140.6575592935</v>
+        <v>-185146.863983622</v>
       </c>
       <c r="I6" t="n">
-        <v>-185140.6575592935</v>
+        <v>-185146.863983622</v>
       </c>
       <c r="J6" t="n">
         <v>-256089.0727719537</v>
       </c>
       <c r="K6" t="n">
-        <v>-208552.9941857171</v>
+        <v>-208559.2006100455</v>
       </c>
       <c r="L6" t="n">
-        <v>-229134.2144849909</v>
+        <v>-229134.214484991</v>
       </c>
       <c r="M6" t="n">
         <v>-352713.6675275927</v>
@@ -26561,7 +26561,7 @@
         <v>-193029.1301728475</v>
       </c>
       <c r="P6" t="n">
-        <v>-210345.4331917821</v>
+        <v>-210345.433191782</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="F2" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="G2" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H2" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I2" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J2" t="n">
         <v>88.51426130483314</v>
@@ -26713,19 +26713,19 @@
         <v>84.17546371944282</v>
       </c>
       <c r="L2" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="M2" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="N2" t="n">
         <v>88.51426130483316</v>
       </c>
       <c r="O2" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="P2" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
     </row>
     <row r="3">
@@ -26744,16 +26744,16 @@
         <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
+        <v>580.4824951727975</v>
+      </c>
+      <c r="F3" t="n">
+        <v>580.4824951727975</v>
+      </c>
+      <c r="G3" t="n">
         <v>580.4824951727974</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>580.4824951727974</v>
-      </c>
-      <c r="G3" t="n">
-        <v>580.4824951727973</v>
-      </c>
-      <c r="H3" t="n">
-        <v>580.4824951727973</v>
       </c>
       <c r="I3" t="n">
         <v>580.4824951727973</v>
@@ -26765,10 +26765,10 @@
         <v>580.4824951727973</v>
       </c>
       <c r="L3" t="n">
-        <v>580.4824951727974</v>
+        <v>580.4824951727973</v>
       </c>
       <c r="M3" t="n">
-        <v>580.4824951727974</v>
+        <v>580.4824951727973</v>
       </c>
       <c r="N3" t="n">
         <v>580.4824951727973</v>
@@ -26796,7 +26796,7 @@
         <v>244.5627323611424</v>
       </c>
       <c r="E4" t="n">
-        <v>909.8031416733289</v>
+        <v>909.8031416733293</v>
       </c>
       <c r="F4" t="n">
         <v>909.803141673329</v>
@@ -26805,10 +26805,10 @@
         <v>909.803141673329</v>
       </c>
       <c r="H4" t="n">
-        <v>909.8031416733289</v>
+        <v>909.803141673329</v>
       </c>
       <c r="I4" t="n">
-        <v>909.8031416733289</v>
+        <v>909.803141673329</v>
       </c>
       <c r="J4" t="n">
         <v>909.8031416733288</v>
@@ -26820,7 +26820,7 @@
         <v>909.8031416733289</v>
       </c>
       <c r="M4" t="n">
-        <v>909.8031416733288</v>
+        <v>909.8031416733289</v>
       </c>
       <c r="N4" t="n">
         <v>909.8031416733288</v>
@@ -26914,40 +26914,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="F2" t="n">
-        <v>33.60421836841969</v>
+        <v>33.60421836841961</v>
       </c>
       <c r="G2" t="n">
-        <v>47.29000092705223</v>
+        <v>47.29000092705238</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>7.620042009361212</v>
+        <v>7.620042009361157</v>
       </c>
       <c r="K2" t="n">
-        <v>29.26542078302936</v>
+        <v>29.26542078302928</v>
       </c>
       <c r="L2" t="n">
-        <v>51.62879851244254</v>
+        <v>51.62879851244271</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.620042009361155</v>
+        <v>7.620042009361143</v>
       </c>
       <c r="P2" t="n">
-        <v>29.26542078302939</v>
+        <v>29.26542078302928</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>576.808632279555</v>
+        <v>576.8086322795551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.548443483483368</v>
       </c>
       <c r="E4" t="n">
-        <v>665.2404093121866</v>
+        <v>665.2404093121868</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.0142888776588</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>3.548443483483311</v>
       </c>
       <c r="M4" t="n">
-        <v>665.2404093121864</v>
+        <v>665.2404093121868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="K2" t="n">
-        <v>33.60421836841969</v>
+        <v>33.60421836841961</v>
       </c>
       <c r="L2" t="n">
-        <v>47.29000092705223</v>
+        <v>47.29000092705238</v>
       </c>
       <c r="M2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>7.620042009361212</v>
+        <v>7.620042009361157</v>
       </c>
       <c r="P2" t="n">
-        <v>29.26542078302936</v>
+        <v>29.26542078302928</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>3.548443483483368</v>
       </c>
       <c r="M4" t="n">
-        <v>665.2404093121866</v>
+        <v>665.2404093121868</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.5729191572185</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>209.8933976134044</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27421,13 +27421,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,19 +27455,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>61.67643668084156</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>34.67690903038675</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>155.8535025062293</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,22 +27658,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>138.2441858335463</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>65.26059977687055</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>61.94668317534969</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>108.7919413225169</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27716,7 +27716,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,7 +27746,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27755,13 +27755,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138.1711093023382</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27862,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>162.313313380569</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>210.5728771964912</v>
+        <v>170.7252358559293</v>
       </c>
       <c r="H8" t="n">
         <v>339.3235460419765</v>
@@ -27901,19 +27901,19 @@
         <v>148.9413660216818</v>
       </c>
       <c r="S8" t="n">
-        <v>208.6835142066282</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0311969618593</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6.781739002849009</v>
+        <v>6.781739002849008</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>338.5539022458891</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1328769967189</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>105.9790456922386</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>153.0618670686953</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28056,7 +28056,7 @@
         <v>85.60728995481479</v>
       </c>
       <c r="R10" t="n">
-        <v>176.9955073465141</v>
+        <v>39.91394168141611</v>
       </c>
       <c r="S10" t="n">
         <v>223.9011423785076</v>
@@ -28065,7 +28065,7 @@
         <v>227.9172826158254</v>
       </c>
       <c r="U10" t="n">
-        <v>149.2371023278296</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="C11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="D11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="E11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="F11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="G11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="H11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="I11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="S11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="T11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="U11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="V11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="W11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="X11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="C13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="D13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="E13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="F13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="G13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="H13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="I13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="J13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="K13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="L13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="M13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="N13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="O13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="P13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="R13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="S13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="T13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="U13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="V13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="W13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="X13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.281244423970803</v>
+        <v>3.281244423970804</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="C14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="D14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="E14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="F14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="G14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="H14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="I14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>3.281244423970833</v>
+        <v>3.281244423970804</v>
       </c>
       <c r="S14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="T14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="U14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="V14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="W14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="X14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="Y14" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="C16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="D16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="E16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="F16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="G16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="H16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="I16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="J16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="K16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="L16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="M16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="N16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="O16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="P16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="Q16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="R16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="S16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="T16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="U16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="V16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="W16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="X16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
       <c r="Y16" t="n">
-        <v>36.88546279239049</v>
+        <v>36.88546279239041</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28609,28 +28609,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>3.281244423970861</v>
+        <v>3.281244423970833</v>
       </c>
       <c r="S17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="K19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="L19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="M19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="N19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="O19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="P19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="R19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="S19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y19" t="n">
-        <v>84.17546371944272</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>3.281244423970861</v>
+        <v>3.281244423970833</v>
       </c>
       <c r="S20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="K22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="L22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="M22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="N22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="O22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="P22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="R22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="S22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y22" t="n">
-        <v>84.17546371944276</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>3.281244423970861</v>
       </c>
       <c r="S23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U23" t="n">
-        <v>84.17546371944306</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="C25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="D25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="E25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="F25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="G25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="H25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="I25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="J25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="K25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="L25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="M25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="N25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="O25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="P25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="R25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="S25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="T25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="U25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="V25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="W25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="X25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.17546371944273</v>
+        <v>84.17546371944279</v>
       </c>
     </row>
     <row r="26">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="C32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="D32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="E32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="F32" t="n">
-        <v>88.51426130483313</v>
+        <v>23.43229752397815</v>
       </c>
       <c r="G32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="H32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="I32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>3.281244423970833</v>
+        <v>3.281244423970861</v>
       </c>
       <c r="S32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="T32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="U32" t="n">
-        <v>23.43229752397869</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="V32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="W32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="X32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Y32" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="C34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="D34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="E34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="F34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="G34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="H34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="I34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="J34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="K34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="L34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="M34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="N34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="O34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="P34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Q34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="R34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="S34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="T34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="U34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="V34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="W34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="X34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Y34" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483316</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="C35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="D35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="E35" t="n">
-        <v>88.51426130483314</v>
+        <v>23.43229752397809</v>
       </c>
       <c r="F35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="G35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="H35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="I35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.281244423970833</v>
+        <v>3.281244423970861</v>
       </c>
       <c r="S35" t="n">
-        <v>23.43229752397843</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="T35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="U35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="V35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="W35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="X35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Y35" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="C37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="D37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="E37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="F37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="G37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="H37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="I37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="J37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="K37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="L37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="M37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="N37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="O37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="P37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="R37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="S37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="T37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="U37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="V37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="W37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="X37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="Y37" t="n">
-        <v>88.51426130483314</v>
+        <v>88.51426130483316</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>23.43229752397855</v>
+        <v>88.51426130483316</v>
       </c>
       <c r="C38" t="n">
         <v>88.51426130483316</v>
@@ -30268,7 +30268,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>3.281244423970861</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>88.51426130483316</v>
@@ -30289,7 +30289,7 @@
         <v>88.51426130483316</v>
       </c>
       <c r="Y38" t="n">
-        <v>88.51426130483316</v>
+        <v>26.71354194794918</v>
       </c>
     </row>
     <row r="39">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="C41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="D41" t="n">
-        <v>88.5142613048331</v>
+        <v>23.43229752397849</v>
       </c>
       <c r="E41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="F41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="G41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="H41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="I41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>3.281244423970861</v>
       </c>
       <c r="S41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="T41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="U41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="V41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="W41" t="n">
-        <v>23.43229752397923</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="X41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Y41" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="C43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="D43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="E43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="F43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="G43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="H43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="I43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="J43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="K43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="L43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="M43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="N43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="O43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="P43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="R43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="S43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="T43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="U43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="V43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="W43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="X43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Y43" t="n">
-        <v>88.5142613048331</v>
+        <v>88.51426130483314</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="C44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="D44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="E44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="F44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="G44" t="n">
-        <v>88.51426130483313</v>
+        <v>23.4322975239786</v>
       </c>
       <c r="H44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="I44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>3.281244423970861</v>
       </c>
       <c r="S44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="T44" t="n">
-        <v>23.43229752397875</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="U44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="V44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="W44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="X44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Y44" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="C46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="D46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="E46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="F46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="G46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="H46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="I46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="J46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="K46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="L46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="M46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="N46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="O46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="P46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="R46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="S46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="T46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="U46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="V46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="W46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="X46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
       <c r="Y46" t="n">
-        <v>88.51426130483313</v>
+        <v>88.51426130483314</v>
       </c>
     </row>
   </sheetData>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.333597970543907</v>
+        <v>2.333597970543908</v>
       </c>
       <c r="H11" t="n">
         <v>23.8989602158328</v>
       </c>
       <c r="I11" t="n">
-        <v>89.96603575939407</v>
+        <v>89.96603575939409</v>
       </c>
       <c r="J11" t="n">
-        <v>198.0612107524511</v>
+        <v>198.0612107524512</v>
       </c>
       <c r="K11" t="n">
         <v>296.8424128455748</v>
@@ -31768,31 +31768,31 @@
         <v>368.259261736608</v>
       </c>
       <c r="M11" t="n">
-        <v>409.7593846452681</v>
+        <v>409.7593846452683</v>
       </c>
       <c r="N11" t="n">
-        <v>416.389719879076</v>
+        <v>416.3897198790762</v>
       </c>
       <c r="O11" t="n">
-        <v>393.18500505948</v>
+        <v>393.1850050594801</v>
       </c>
       <c r="P11" t="n">
-        <v>335.5743051616773</v>
+        <v>335.5743051616774</v>
       </c>
       <c r="Q11" t="n">
-        <v>252.0023278415735</v>
+        <v>252.0023278415736</v>
       </c>
       <c r="R11" t="n">
-        <v>146.5878735171788</v>
+        <v>146.5878735171789</v>
       </c>
       <c r="S11" t="n">
-        <v>53.17686375376934</v>
+        <v>53.17686375376935</v>
       </c>
       <c r="T11" t="n">
         <v>10.21532511605596</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1866878376435125</v>
+        <v>0.1866878376435126</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,43 +31835,43 @@
         <v>12.0587023997217</v>
       </c>
       <c r="I12" t="n">
-        <v>42.98856214251377</v>
+        <v>42.98856214251379</v>
       </c>
       <c r="J12" t="n">
         <v>117.9639002690305</v>
       </c>
       <c r="K12" t="n">
-        <v>201.6190945733668</v>
+        <v>201.6190945733669</v>
       </c>
       <c r="L12" t="n">
         <v>271.1017539955598</v>
       </c>
       <c r="M12" t="n">
-        <v>316.3629598691745</v>
+        <v>316.3629598691746</v>
       </c>
       <c r="N12" t="n">
         <v>324.7361460495445</v>
       </c>
       <c r="O12" t="n">
-        <v>297.0701312796107</v>
+        <v>297.0701312796108</v>
       </c>
       <c r="P12" t="n">
         <v>238.4249705172949</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.3807786746141</v>
+        <v>159.3807786746142</v>
       </c>
       <c r="R12" t="n">
-        <v>77.52179435534079</v>
+        <v>77.5217943553408</v>
       </c>
       <c r="S12" t="n">
         <v>23.19191855713958</v>
       </c>
       <c r="T12" t="n">
-        <v>5.032673708149062</v>
+        <v>5.032673708149063</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08214374931690532</v>
+        <v>0.08214374931690534</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,16 +31911,16 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H13" t="n">
-        <v>9.306752135721249</v>
+        <v>9.306752135721251</v>
       </c>
       <c r="I13" t="n">
-        <v>31.47928023002646</v>
+        <v>31.47928023002647</v>
       </c>
       <c r="J13" t="n">
-        <v>74.00676008129253</v>
+        <v>74.00676008129254</v>
       </c>
       <c r="K13" t="n">
-        <v>121.6158407919401</v>
+        <v>121.6158407919402</v>
       </c>
       <c r="L13" t="n">
         <v>155.6264053451792</v>
@@ -31938,7 +31938,7 @@
         <v>126.6022805865392</v>
       </c>
       <c r="Q13" t="n">
-        <v>87.6528567710924</v>
+        <v>87.65285677109242</v>
       </c>
       <c r="R13" t="n">
         <v>47.06666264138779</v>
@@ -31947,10 +31947,10 @@
         <v>18.24237611879102</v>
       </c>
       <c r="T13" t="n">
-        <v>4.472570044774011</v>
+        <v>4.472570044774012</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05709663886945554</v>
+        <v>0.05709663886945555</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.333597970543907</v>
+        <v>2.333597970543908</v>
       </c>
       <c r="H14" t="n">
         <v>23.8989602158328</v>
       </c>
       <c r="I14" t="n">
-        <v>89.96603575939407</v>
+        <v>89.96603575939409</v>
       </c>
       <c r="J14" t="n">
-        <v>198.0612107524511</v>
+        <v>198.0612107524512</v>
       </c>
       <c r="K14" t="n">
         <v>296.8424128455748</v>
@@ -32005,31 +32005,31 @@
         <v>368.259261736608</v>
       </c>
       <c r="M14" t="n">
-        <v>409.7593846452681</v>
+        <v>409.7593846452683</v>
       </c>
       <c r="N14" t="n">
-        <v>416.389719879076</v>
+        <v>416.3897198790762</v>
       </c>
       <c r="O14" t="n">
-        <v>393.18500505948</v>
+        <v>393.1850050594801</v>
       </c>
       <c r="P14" t="n">
-        <v>335.5743051616773</v>
+        <v>335.5743051616774</v>
       </c>
       <c r="Q14" t="n">
-        <v>252.0023278415735</v>
+        <v>252.0023278415736</v>
       </c>
       <c r="R14" t="n">
-        <v>146.5878735171788</v>
+        <v>146.5878735171789</v>
       </c>
       <c r="S14" t="n">
-        <v>53.17686375376934</v>
+        <v>53.17686375376935</v>
       </c>
       <c r="T14" t="n">
         <v>10.21532511605596</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1866878376435125</v>
+        <v>0.1866878376435126</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>12.0587023997217</v>
       </c>
       <c r="I15" t="n">
-        <v>42.98856214251377</v>
+        <v>42.98856214251379</v>
       </c>
       <c r="J15" t="n">
         <v>117.9639002690305</v>
       </c>
       <c r="K15" t="n">
-        <v>201.6190945733668</v>
+        <v>201.6190945733669</v>
       </c>
       <c r="L15" t="n">
         <v>271.1017539955598</v>
       </c>
       <c r="M15" t="n">
-        <v>316.3629598691745</v>
+        <v>316.3629598691746</v>
       </c>
       <c r="N15" t="n">
         <v>324.7361460495445</v>
       </c>
       <c r="O15" t="n">
-        <v>297.0701312796107</v>
+        <v>297.0701312796108</v>
       </c>
       <c r="P15" t="n">
         <v>238.4249705172949</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.3807786746141</v>
+        <v>159.3807786746142</v>
       </c>
       <c r="R15" t="n">
-        <v>77.52179435534079</v>
+        <v>77.5217943553408</v>
       </c>
       <c r="S15" t="n">
         <v>23.19191855713958</v>
       </c>
       <c r="T15" t="n">
-        <v>5.032673708149062</v>
+        <v>5.032673708149063</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08214374931690532</v>
+        <v>0.08214374931690534</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,16 +32148,16 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H16" t="n">
-        <v>9.306752135721249</v>
+        <v>9.306752135721251</v>
       </c>
       <c r="I16" t="n">
-        <v>31.47928023002646</v>
+        <v>31.47928023002647</v>
       </c>
       <c r="J16" t="n">
-        <v>74.00676008129253</v>
+        <v>74.00676008129254</v>
       </c>
       <c r="K16" t="n">
-        <v>121.6158407919401</v>
+        <v>121.6158407919402</v>
       </c>
       <c r="L16" t="n">
         <v>155.6264053451792</v>
@@ -32175,7 +32175,7 @@
         <v>126.6022805865392</v>
       </c>
       <c r="Q16" t="n">
-        <v>87.6528567710924</v>
+        <v>87.65285677109242</v>
       </c>
       <c r="R16" t="n">
         <v>47.06666264138779</v>
@@ -32184,10 +32184,10 @@
         <v>18.24237611879102</v>
       </c>
       <c r="T16" t="n">
-        <v>4.472570044774011</v>
+        <v>4.472570044774012</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05709663886945554</v>
+        <v>0.05709663886945555</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,19 +32227,19 @@
         <v>2.333597970543907</v>
       </c>
       <c r="H17" t="n">
-        <v>23.89896021583279</v>
+        <v>23.8989602158328</v>
       </c>
       <c r="I17" t="n">
-        <v>89.96603575939406</v>
+        <v>89.96603575939407</v>
       </c>
       <c r="J17" t="n">
         <v>198.0612107524511</v>
       </c>
       <c r="K17" t="n">
-        <v>296.8424128455747</v>
+        <v>296.8424128455748</v>
       </c>
       <c r="L17" t="n">
-        <v>368.2592617366079</v>
+        <v>368.259261736608</v>
       </c>
       <c r="M17" t="n">
         <v>409.7593846452681</v>
@@ -32251,7 +32251,7 @@
         <v>393.18500505948</v>
       </c>
       <c r="P17" t="n">
-        <v>335.5743051616772</v>
+        <v>335.5743051616773</v>
       </c>
       <c r="Q17" t="n">
         <v>252.0023278415735</v>
@@ -32260,7 +32260,7 @@
         <v>146.5878735171788</v>
       </c>
       <c r="S17" t="n">
-        <v>53.17686375376933</v>
+        <v>53.17686375376934</v>
       </c>
       <c r="T17" t="n">
         <v>10.21532511605596</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.24858498961696</v>
+        <v>1.248584989616961</v>
       </c>
       <c r="H18" t="n">
         <v>12.0587023997217</v>
       </c>
       <c r="I18" t="n">
-        <v>42.98856214251376</v>
+        <v>42.98856214251377</v>
       </c>
       <c r="J18" t="n">
-        <v>117.9639002690304</v>
+        <v>117.9639002690305</v>
       </c>
       <c r="K18" t="n">
         <v>201.6190945733668</v>
       </c>
       <c r="L18" t="n">
-        <v>271.1017539955597</v>
+        <v>271.1017539955598</v>
       </c>
       <c r="M18" t="n">
         <v>316.3629598691745</v>
       </c>
       <c r="N18" t="n">
-        <v>324.7361460495444</v>
+        <v>324.7361460495445</v>
       </c>
       <c r="O18" t="n">
         <v>297.0701312796107</v>
       </c>
       <c r="P18" t="n">
-        <v>238.4249705172948</v>
+        <v>238.4249705172949</v>
       </c>
       <c r="Q18" t="n">
         <v>159.3807786746141</v>
       </c>
       <c r="R18" t="n">
-        <v>77.52179435534077</v>
+        <v>77.52179435534079</v>
       </c>
       <c r="S18" t="n">
-        <v>23.19191855713957</v>
+        <v>23.19191855713958</v>
       </c>
       <c r="T18" t="n">
-        <v>5.032673708149061</v>
+        <v>5.032673708149062</v>
       </c>
       <c r="U18" t="n">
-        <v>0.08214374931690531</v>
+        <v>0.08214374931690532</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H19" t="n">
-        <v>9.306752135721247</v>
+        <v>9.306752135721249</v>
       </c>
       <c r="I19" t="n">
-        <v>31.47928023002645</v>
+        <v>31.47928023002646</v>
       </c>
       <c r="J19" t="n">
-        <v>74.00676008129251</v>
+        <v>74.00676008129253</v>
       </c>
       <c r="K19" t="n">
         <v>121.6158407919401</v>
       </c>
       <c r="L19" t="n">
-        <v>155.6264053451791</v>
+        <v>155.6264053451792</v>
       </c>
       <c r="M19" t="n">
-        <v>164.0862240043367</v>
+        <v>164.0862240043368</v>
       </c>
       <c r="N19" t="n">
-        <v>160.1846203482574</v>
+        <v>160.1846203482575</v>
       </c>
       <c r="O19" t="n">
-        <v>147.9564235237156</v>
+        <v>147.9564235237157</v>
       </c>
       <c r="P19" t="n">
         <v>126.6022805865392</v>
       </c>
       <c r="Q19" t="n">
-        <v>87.65285677109239</v>
+        <v>87.6528567710924</v>
       </c>
       <c r="R19" t="n">
-        <v>47.06666264138777</v>
+        <v>47.06666264138779</v>
       </c>
       <c r="S19" t="n">
-        <v>18.24237611879101</v>
+        <v>18.24237611879102</v>
       </c>
       <c r="T19" t="n">
-        <v>4.47257004477401</v>
+        <v>4.472570044774011</v>
       </c>
       <c r="U19" t="n">
-        <v>0.05709663886945553</v>
+        <v>0.05709663886945554</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,19 +32464,19 @@
         <v>2.333597970543907</v>
       </c>
       <c r="H20" t="n">
-        <v>23.89896021583279</v>
+        <v>23.8989602158328</v>
       </c>
       <c r="I20" t="n">
-        <v>89.96603575939406</v>
+        <v>89.96603575939407</v>
       </c>
       <c r="J20" t="n">
         <v>198.0612107524511</v>
       </c>
       <c r="K20" t="n">
-        <v>296.8424128455747</v>
+        <v>296.8424128455748</v>
       </c>
       <c r="L20" t="n">
-        <v>368.2592617366079</v>
+        <v>368.259261736608</v>
       </c>
       <c r="M20" t="n">
         <v>409.7593846452681</v>
@@ -32488,7 +32488,7 @@
         <v>393.18500505948</v>
       </c>
       <c r="P20" t="n">
-        <v>335.5743051616772</v>
+        <v>335.5743051616773</v>
       </c>
       <c r="Q20" t="n">
         <v>252.0023278415735</v>
@@ -32497,7 +32497,7 @@
         <v>146.5878735171788</v>
       </c>
       <c r="S20" t="n">
-        <v>53.17686375376933</v>
+        <v>53.17686375376934</v>
       </c>
       <c r="T20" t="n">
         <v>10.21532511605596</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.24858498961696</v>
+        <v>1.248584989616961</v>
       </c>
       <c r="H21" t="n">
         <v>12.0587023997217</v>
       </c>
       <c r="I21" t="n">
-        <v>42.98856214251376</v>
+        <v>42.98856214251377</v>
       </c>
       <c r="J21" t="n">
-        <v>117.9639002690304</v>
+        <v>117.9639002690305</v>
       </c>
       <c r="K21" t="n">
         <v>201.6190945733668</v>
       </c>
       <c r="L21" t="n">
-        <v>271.1017539955597</v>
+        <v>271.1017539955598</v>
       </c>
       <c r="M21" t="n">
         <v>316.3629598691745</v>
       </c>
       <c r="N21" t="n">
-        <v>324.7361460495444</v>
+        <v>324.7361460495445</v>
       </c>
       <c r="O21" t="n">
         <v>297.0701312796107</v>
       </c>
       <c r="P21" t="n">
-        <v>238.4249705172948</v>
+        <v>238.4249705172949</v>
       </c>
       <c r="Q21" t="n">
         <v>159.3807786746141</v>
       </c>
       <c r="R21" t="n">
-        <v>77.52179435534077</v>
+        <v>77.52179435534079</v>
       </c>
       <c r="S21" t="n">
-        <v>23.19191855713957</v>
+        <v>23.19191855713958</v>
       </c>
       <c r="T21" t="n">
-        <v>5.032673708149061</v>
+        <v>5.032673708149062</v>
       </c>
       <c r="U21" t="n">
-        <v>0.08214374931690531</v>
+        <v>0.08214374931690532</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32622,46 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H22" t="n">
-        <v>9.306752135721247</v>
+        <v>9.306752135721249</v>
       </c>
       <c r="I22" t="n">
-        <v>31.47928023002645</v>
+        <v>31.47928023002646</v>
       </c>
       <c r="J22" t="n">
-        <v>74.00676008129251</v>
+        <v>74.00676008129253</v>
       </c>
       <c r="K22" t="n">
         <v>121.6158407919401</v>
       </c>
       <c r="L22" t="n">
-        <v>155.6264053451791</v>
+        <v>155.6264053451792</v>
       </c>
       <c r="M22" t="n">
-        <v>164.0862240043367</v>
+        <v>164.0862240043368</v>
       </c>
       <c r="N22" t="n">
-        <v>160.1846203482574</v>
+        <v>160.1846203482575</v>
       </c>
       <c r="O22" t="n">
-        <v>147.9564235237156</v>
+        <v>147.9564235237157</v>
       </c>
       <c r="P22" t="n">
         <v>126.6022805865392</v>
       </c>
       <c r="Q22" t="n">
-        <v>87.65285677109239</v>
+        <v>87.6528567710924</v>
       </c>
       <c r="R22" t="n">
-        <v>47.06666264138777</v>
+        <v>47.06666264138779</v>
       </c>
       <c r="S22" t="n">
-        <v>18.24237611879101</v>
+        <v>18.24237611879102</v>
       </c>
       <c r="T22" t="n">
-        <v>4.47257004477401</v>
+        <v>4.472570044774011</v>
       </c>
       <c r="U22" t="n">
-        <v>0.05709663886945553</v>
+        <v>0.05709663886945554</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33412,19 +33412,19 @@
         <v>2.333597970543907</v>
       </c>
       <c r="H32" t="n">
-        <v>23.8989602158328</v>
+        <v>23.89896021583279</v>
       </c>
       <c r="I32" t="n">
-        <v>89.96603575939407</v>
+        <v>89.96603575939406</v>
       </c>
       <c r="J32" t="n">
         <v>198.0612107524511</v>
       </c>
       <c r="K32" t="n">
-        <v>296.8424128455748</v>
+        <v>296.8424128455747</v>
       </c>
       <c r="L32" t="n">
-        <v>368.259261736608</v>
+        <v>368.2592617366079</v>
       </c>
       <c r="M32" t="n">
         <v>409.7593846452681</v>
@@ -33436,7 +33436,7 @@
         <v>393.18500505948</v>
       </c>
       <c r="P32" t="n">
-        <v>335.5743051616773</v>
+        <v>335.5743051616772</v>
       </c>
       <c r="Q32" t="n">
         <v>252.0023278415735</v>
@@ -33445,7 +33445,7 @@
         <v>146.5878735171788</v>
       </c>
       <c r="S32" t="n">
-        <v>53.17686375376934</v>
+        <v>53.17686375376933</v>
       </c>
       <c r="T32" t="n">
         <v>10.21532511605596</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.248584989616961</v>
+        <v>1.24858498961696</v>
       </c>
       <c r="H33" t="n">
         <v>12.0587023997217</v>
       </c>
       <c r="I33" t="n">
-        <v>42.98856214251377</v>
+        <v>42.98856214251376</v>
       </c>
       <c r="J33" t="n">
-        <v>117.9639002690305</v>
+        <v>117.9639002690304</v>
       </c>
       <c r="K33" t="n">
         <v>201.6190945733668</v>
       </c>
       <c r="L33" t="n">
-        <v>271.1017539955598</v>
+        <v>271.1017539955597</v>
       </c>
       <c r="M33" t="n">
         <v>316.3629598691745</v>
       </c>
       <c r="N33" t="n">
-        <v>324.7361460495445</v>
+        <v>324.7361460495444</v>
       </c>
       <c r="O33" t="n">
         <v>297.0701312796107</v>
       </c>
       <c r="P33" t="n">
-        <v>238.4249705172949</v>
+        <v>238.4249705172948</v>
       </c>
       <c r="Q33" t="n">
         <v>159.3807786746141</v>
       </c>
       <c r="R33" t="n">
-        <v>77.52179435534079</v>
+        <v>77.52179435534077</v>
       </c>
       <c r="S33" t="n">
-        <v>23.19191855713958</v>
+        <v>23.19191855713957</v>
       </c>
       <c r="T33" t="n">
-        <v>5.032673708149062</v>
+        <v>5.032673708149061</v>
       </c>
       <c r="U33" t="n">
-        <v>0.08214374931690532</v>
+        <v>0.08214374931690531</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33570,46 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H34" t="n">
-        <v>9.306752135721249</v>
+        <v>9.306752135721247</v>
       </c>
       <c r="I34" t="n">
-        <v>31.47928023002646</v>
+        <v>31.47928023002645</v>
       </c>
       <c r="J34" t="n">
-        <v>74.00676008129253</v>
+        <v>74.00676008129251</v>
       </c>
       <c r="K34" t="n">
         <v>121.6158407919401</v>
       </c>
       <c r="L34" t="n">
-        <v>155.6264053451792</v>
+        <v>155.6264053451791</v>
       </c>
       <c r="M34" t="n">
-        <v>164.0862240043368</v>
+        <v>164.0862240043367</v>
       </c>
       <c r="N34" t="n">
-        <v>160.1846203482575</v>
+        <v>160.1846203482574</v>
       </c>
       <c r="O34" t="n">
-        <v>147.9564235237157</v>
+        <v>147.9564235237156</v>
       </c>
       <c r="P34" t="n">
         <v>126.6022805865392</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.6528567710924</v>
+        <v>87.65285677109239</v>
       </c>
       <c r="R34" t="n">
-        <v>47.06666264138779</v>
+        <v>47.06666264138777</v>
       </c>
       <c r="S34" t="n">
-        <v>18.24237611879102</v>
+        <v>18.24237611879101</v>
       </c>
       <c r="T34" t="n">
-        <v>4.472570044774011</v>
+        <v>4.47257004477401</v>
       </c>
       <c r="U34" t="n">
-        <v>0.05709663886945554</v>
+        <v>0.05709663886945553</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,19 +33649,19 @@
         <v>2.333597970543907</v>
       </c>
       <c r="H35" t="n">
-        <v>23.8989602158328</v>
+        <v>23.89896021583279</v>
       </c>
       <c r="I35" t="n">
-        <v>89.96603575939407</v>
+        <v>89.96603575939406</v>
       </c>
       <c r="J35" t="n">
         <v>198.0612107524511</v>
       </c>
       <c r="K35" t="n">
-        <v>296.8424128455748</v>
+        <v>296.8424128455747</v>
       </c>
       <c r="L35" t="n">
-        <v>368.259261736608</v>
+        <v>368.2592617366079</v>
       </c>
       <c r="M35" t="n">
         <v>409.7593846452681</v>
@@ -33673,7 +33673,7 @@
         <v>393.18500505948</v>
       </c>
       <c r="P35" t="n">
-        <v>335.5743051616773</v>
+        <v>335.5743051616772</v>
       </c>
       <c r="Q35" t="n">
         <v>252.0023278415735</v>
@@ -33682,7 +33682,7 @@
         <v>146.5878735171788</v>
       </c>
       <c r="S35" t="n">
-        <v>53.17686375376934</v>
+        <v>53.17686375376933</v>
       </c>
       <c r="T35" t="n">
         <v>10.21532511605596</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.248584989616961</v>
+        <v>1.24858498961696</v>
       </c>
       <c r="H36" t="n">
         <v>12.0587023997217</v>
       </c>
       <c r="I36" t="n">
-        <v>42.98856214251377</v>
+        <v>42.98856214251376</v>
       </c>
       <c r="J36" t="n">
-        <v>117.9639002690305</v>
+        <v>117.9639002690304</v>
       </c>
       <c r="K36" t="n">
         <v>201.6190945733668</v>
       </c>
       <c r="L36" t="n">
-        <v>271.1017539955598</v>
+        <v>271.1017539955597</v>
       </c>
       <c r="M36" t="n">
         <v>316.3629598691745</v>
       </c>
       <c r="N36" t="n">
-        <v>324.7361460495445</v>
+        <v>324.7361460495444</v>
       </c>
       <c r="O36" t="n">
         <v>297.0701312796107</v>
       </c>
       <c r="P36" t="n">
-        <v>238.4249705172949</v>
+        <v>238.4249705172948</v>
       </c>
       <c r="Q36" t="n">
         <v>159.3807786746141</v>
       </c>
       <c r="R36" t="n">
-        <v>77.52179435534079</v>
+        <v>77.52179435534077</v>
       </c>
       <c r="S36" t="n">
-        <v>23.19191855713958</v>
+        <v>23.19191855713957</v>
       </c>
       <c r="T36" t="n">
-        <v>5.032673708149062</v>
+        <v>5.032673708149061</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08214374931690532</v>
+        <v>0.08214374931690531</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33807,46 @@
         <v>1.046771712606684</v>
       </c>
       <c r="H37" t="n">
-        <v>9.306752135721249</v>
+        <v>9.306752135721247</v>
       </c>
       <c r="I37" t="n">
-        <v>31.47928023002646</v>
+        <v>31.47928023002645</v>
       </c>
       <c r="J37" t="n">
-        <v>74.00676008129253</v>
+        <v>74.00676008129251</v>
       </c>
       <c r="K37" t="n">
         <v>121.6158407919401</v>
       </c>
       <c r="L37" t="n">
-        <v>155.6264053451792</v>
+        <v>155.6264053451791</v>
       </c>
       <c r="M37" t="n">
-        <v>164.0862240043368</v>
+        <v>164.0862240043367</v>
       </c>
       <c r="N37" t="n">
-        <v>160.1846203482575</v>
+        <v>160.1846203482574</v>
       </c>
       <c r="O37" t="n">
-        <v>147.9564235237157</v>
+        <v>147.9564235237156</v>
       </c>
       <c r="P37" t="n">
         <v>126.6022805865392</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.6528567710924</v>
+        <v>87.65285677109239</v>
       </c>
       <c r="R37" t="n">
-        <v>47.06666264138779</v>
+        <v>47.06666264138777</v>
       </c>
       <c r="S37" t="n">
-        <v>18.24237611879102</v>
+        <v>18.24237611879101</v>
       </c>
       <c r="T37" t="n">
-        <v>4.472570044774011</v>
+        <v>4.47257004477401</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05709663886945554</v>
+        <v>0.05709663886945553</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -35258,10 +35258,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>222.1425621546524</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N9" t="n">
-        <v>244.5627323611424</v>
+        <v>222.1425621546525</v>
       </c>
       <c r="O9" t="n">
         <v>244.5627323611424</v>
@@ -35410,25 +35410,25 @@
         <v>186.1119213978386</v>
       </c>
       <c r="K11" t="n">
-        <v>400.8979743717589</v>
+        <v>400.897974371759</v>
       </c>
       <c r="L11" t="n">
         <v>550.1540613170712</v>
       </c>
       <c r="M11" t="n">
-        <v>628.9266849108279</v>
+        <v>628.926684910828</v>
       </c>
       <c r="N11" t="n">
-        <v>624.3235806944692</v>
+        <v>624.3235806944695</v>
       </c>
       <c r="O11" t="n">
-        <v>543.8869749005387</v>
+        <v>543.8869749005388</v>
       </c>
       <c r="P11" t="n">
-        <v>426.1400175778904</v>
+        <v>426.1400175778905</v>
       </c>
       <c r="Q11" t="n">
-        <v>242.0116286270287</v>
+        <v>242.0116286270288</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,19 +35489,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>63.77765559900783</v>
+        <v>63.77765559900786</v>
       </c>
       <c r="L12" t="n">
         <v>132.5473742156856</v>
       </c>
       <c r="M12" t="n">
-        <v>542.3443822261817</v>
+        <v>542.3443822261813</v>
       </c>
       <c r="N12" t="n">
         <v>672.7368083097647</v>
       </c>
       <c r="O12" t="n">
-        <v>548.3362061118958</v>
+        <v>548.3362061118959</v>
       </c>
       <c r="P12" t="n">
         <v>422.9133317429018</v>
@@ -35580,13 +35580,13 @@
         <v>207.5980371514569</v>
       </c>
       <c r="O13" t="n">
-        <v>175.8227958617261</v>
+        <v>175.8227958617262</v>
       </c>
       <c r="P13" t="n">
         <v>127.1620842754035</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.77205794336882</v>
+        <v>4.772057943368836</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>186.1119213978386</v>
       </c>
       <c r="K14" t="n">
-        <v>400.8979743717589</v>
+        <v>400.897974371759</v>
       </c>
       <c r="L14" t="n">
         <v>550.1540613170712</v>
       </c>
       <c r="M14" t="n">
-        <v>628.9266849108279</v>
+        <v>628.926684910828</v>
       </c>
       <c r="N14" t="n">
-        <v>624.3235806944692</v>
+        <v>624.3235806944695</v>
       </c>
       <c r="O14" t="n">
-        <v>543.8869749005387</v>
+        <v>543.8869749005388</v>
       </c>
       <c r="P14" t="n">
-        <v>426.1400175778904</v>
+        <v>426.1400175778905</v>
       </c>
       <c r="Q14" t="n">
-        <v>242.0116286270287</v>
+        <v>242.0116286270288</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,19 +35726,19 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>63.77765559900783</v>
+        <v>63.77765559900786</v>
       </c>
       <c r="L15" t="n">
         <v>132.5473742156856</v>
       </c>
       <c r="M15" t="n">
-        <v>639.9339896971561</v>
+        <v>639.9339896971562</v>
       </c>
       <c r="N15" t="n">
-        <v>575.1472008387904</v>
+        <v>672.7368083097647</v>
       </c>
       <c r="O15" t="n">
-        <v>548.3362061118958</v>
+        <v>450.7465986409209</v>
       </c>
       <c r="P15" t="n">
         <v>422.9133317429018</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>17.53304275701024</v>
+        <v>17.53304275701018</v>
       </c>
       <c r="K16" t="n">
-        <v>136.2318117584478</v>
+        <v>136.2318117584477</v>
       </c>
       <c r="L16" t="n">
         <v>220.1018933978858</v>
@@ -35820,10 +35820,10 @@
         <v>209.4270142301458</v>
       </c>
       <c r="P16" t="n">
-        <v>160.7663026438232</v>
+        <v>160.7663026438231</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.37627631178851</v>
+        <v>38.37627631178844</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,19 +35887,19 @@
         <v>400.8979743717589</v>
       </c>
       <c r="L17" t="n">
-        <v>550.1540613170711</v>
+        <v>550.1540613170712</v>
       </c>
       <c r="M17" t="n">
-        <v>628.9266849108278</v>
+        <v>628.9266849108279</v>
       </c>
       <c r="N17" t="n">
         <v>624.3235806944692</v>
       </c>
       <c r="O17" t="n">
-        <v>543.8869749005386</v>
+        <v>543.8869749005387</v>
       </c>
       <c r="P17" t="n">
-        <v>426.1400175778903</v>
+        <v>426.1400175778904</v>
       </c>
       <c r="Q17" t="n">
         <v>242.0116286270287</v>
@@ -35963,13 +35963,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>63.77765559900777</v>
+        <v>63.77765559900783</v>
       </c>
       <c r="L18" t="n">
-        <v>132.5473742156855</v>
+        <v>132.5473742156856</v>
       </c>
       <c r="M18" t="n">
-        <v>542.3443822261822</v>
+        <v>542.3443822261817</v>
       </c>
       <c r="N18" t="n">
         <v>672.7368083097647</v>
@@ -35978,7 +35978,7 @@
         <v>548.3362061118958</v>
       </c>
       <c r="P18" t="n">
-        <v>422.9133317429017</v>
+        <v>422.9133317429018</v>
       </c>
       <c r="Q18" t="n">
         <v>229.4762923244417</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>64.82304368406245</v>
+        <v>64.82304368406254</v>
       </c>
       <c r="K19" t="n">
-        <v>183.5218126855</v>
+        <v>183.5218126855001</v>
       </c>
       <c r="L19" t="n">
-        <v>267.391894324938</v>
+        <v>267.3918943249381</v>
       </c>
       <c r="M19" t="n">
-        <v>287.84556468562</v>
+        <v>287.8455646856202</v>
       </c>
       <c r="N19" t="n">
-        <v>288.4922564469287</v>
+        <v>288.4922564469288</v>
       </c>
       <c r="O19" t="n">
-        <v>256.717015157198</v>
+        <v>256.7170151571981</v>
       </c>
       <c r="P19" t="n">
-        <v>208.0563035708754</v>
+        <v>208.0563035708755</v>
       </c>
       <c r="Q19" t="n">
-        <v>85.66627723884072</v>
+        <v>85.66627723884081</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,19 +36124,19 @@
         <v>400.8979743717589</v>
       </c>
       <c r="L20" t="n">
-        <v>550.1540613170711</v>
+        <v>550.1540613170712</v>
       </c>
       <c r="M20" t="n">
-        <v>628.9266849108278</v>
+        <v>628.9266849108279</v>
       </c>
       <c r="N20" t="n">
         <v>624.3235806944692</v>
       </c>
       <c r="O20" t="n">
-        <v>543.8869749005386</v>
+        <v>543.8869749005387</v>
       </c>
       <c r="P20" t="n">
-        <v>426.1400175778903</v>
+        <v>426.1400175778904</v>
       </c>
       <c r="Q20" t="n">
         <v>242.0116286270287</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>63.77765559900777</v>
+        <v>63.77765559900783</v>
       </c>
       <c r="L21" t="n">
-        <v>132.5473742156855</v>
+        <v>353.4205353846483</v>
       </c>
       <c r="M21" t="n">
-        <v>542.3443822261822</v>
+        <v>639.9339896971561</v>
       </c>
       <c r="N21" t="n">
         <v>672.7368083097647</v>
@@ -36215,7 +36215,7 @@
         <v>548.3362061118958</v>
       </c>
       <c r="P21" t="n">
-        <v>422.9133317429017</v>
+        <v>104.4505631029646</v>
       </c>
       <c r="Q21" t="n">
         <v>229.4762923244417</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>64.8230436840625</v>
+        <v>64.82304368406254</v>
       </c>
       <c r="K22" t="n">
-        <v>183.5218126855</v>
+        <v>183.5218126855001</v>
       </c>
       <c r="L22" t="n">
         <v>267.3918943249381</v>
       </c>
       <c r="M22" t="n">
-        <v>287.8455646856201</v>
+        <v>287.8455646856202</v>
       </c>
       <c r="N22" t="n">
         <v>288.4922564469288</v>
@@ -36297,7 +36297,7 @@
         <v>208.0563035708755</v>
       </c>
       <c r="Q22" t="n">
-        <v>85.66627723884076</v>
+        <v>85.66627723884081</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>328.2428926115864</v>
+        <v>63.77765559900777</v>
       </c>
       <c r="L24" t="n">
-        <v>236.197593482133</v>
+        <v>503.3877195191447</v>
       </c>
       <c r="M24" t="n">
-        <v>174.2289259471561</v>
+        <v>489.9668055626602</v>
       </c>
       <c r="N24" t="n">
         <v>672.7368083097647</v>
@@ -36452,7 +36452,7 @@
         <v>548.3362061118958</v>
       </c>
       <c r="P24" t="n">
-        <v>422.9133317429017</v>
+        <v>104.4505631029646</v>
       </c>
       <c r="Q24" t="n">
         <v>229.4762923244417</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>64.82304368406247</v>
+        <v>64.82304368406253</v>
       </c>
       <c r="K25" t="n">
         <v>183.5218126855</v>
       </c>
       <c r="L25" t="n">
-        <v>267.391894324938</v>
+        <v>267.3918943249381</v>
       </c>
       <c r="M25" t="n">
-        <v>287.84556468562</v>
+        <v>287.8455646856201</v>
       </c>
       <c r="N25" t="n">
-        <v>288.4922564469287</v>
+        <v>288.4922564469288</v>
       </c>
       <c r="O25" t="n">
-        <v>256.717015157198</v>
+        <v>256.7170151571981</v>
       </c>
       <c r="P25" t="n">
-        <v>208.0563035708754</v>
+        <v>208.0563035708755</v>
       </c>
       <c r="Q25" t="n">
-        <v>85.66627723884073</v>
+        <v>85.66627723884079</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>63.77765559900777</v>
+        <v>328.2428926115864</v>
       </c>
       <c r="L27" t="n">
-        <v>132.5473742156855</v>
+        <v>503.3877195191447</v>
       </c>
       <c r="M27" t="n">
-        <v>542.3443822261822</v>
+        <v>300.9011191868742</v>
       </c>
       <c r="N27" t="n">
         <v>672.7368083097647</v>
       </c>
       <c r="O27" t="n">
-        <v>548.3362061118958</v>
+        <v>154.4738868351662</v>
       </c>
       <c r="P27" t="n">
         <v>422.9133317429017</v>
@@ -36911,19 +36911,19 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>63.77765559900777</v>
+        <v>328.2428926115864</v>
       </c>
       <c r="L30" t="n">
-        <v>132.5473742156855</v>
+        <v>503.3877195191447</v>
       </c>
       <c r="M30" t="n">
-        <v>542.3443822261822</v>
+        <v>639.933989697156</v>
       </c>
       <c r="N30" t="n">
-        <v>672.7368083097647</v>
+        <v>193.3944339662111</v>
       </c>
       <c r="O30" t="n">
-        <v>548.3362061118958</v>
+        <v>294.783390668438</v>
       </c>
       <c r="P30" t="n">
         <v>422.9133317429017</v>
@@ -37072,19 +37072,19 @@
         <v>400.8979743717589</v>
       </c>
       <c r="L32" t="n">
-        <v>550.1540613170712</v>
+        <v>550.1540613170711</v>
       </c>
       <c r="M32" t="n">
-        <v>628.9266849108279</v>
+        <v>628.9266849108278</v>
       </c>
       <c r="N32" t="n">
         <v>624.3235806944692</v>
       </c>
       <c r="O32" t="n">
-        <v>543.8869749005387</v>
+        <v>543.8869749005386</v>
       </c>
       <c r="P32" t="n">
-        <v>426.1400175778904</v>
+        <v>426.1400175778903</v>
       </c>
       <c r="Q32" t="n">
         <v>242.0116286270287</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>63.77765559900783</v>
+        <v>63.77765559900777</v>
       </c>
       <c r="L33" t="n">
-        <v>132.5473742156856</v>
+        <v>503.3877195191447</v>
       </c>
       <c r="M33" t="n">
-        <v>542.3443822261817</v>
+        <v>174.2289259471561</v>
       </c>
       <c r="N33" t="n">
         <v>672.7368083097647</v>
       </c>
       <c r="O33" t="n">
-        <v>548.3362061118958</v>
+        <v>545.6113170874628</v>
       </c>
       <c r="P33" t="n">
-        <v>422.9133317429018</v>
+        <v>422.9133317429017</v>
       </c>
       <c r="Q33" t="n">
         <v>229.4762923244417</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.16184126945288</v>
+        <v>69.16184126945289</v>
       </c>
       <c r="K34" t="n">
         <v>187.8606102708904</v>
@@ -37236,7 +37236,7 @@
         <v>292.1843622710105</v>
       </c>
       <c r="N34" t="n">
-        <v>292.8310540323192</v>
+        <v>292.8310540323191</v>
       </c>
       <c r="O34" t="n">
         <v>261.0558127425885</v>
@@ -37245,7 +37245,7 @@
         <v>212.3951011562658</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.00507482423114</v>
+        <v>90.00507482423116</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,25 +37303,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>186.1119213978381</v>
+        <v>186.1119213978386</v>
       </c>
       <c r="K35" t="n">
         <v>400.8979743717589</v>
       </c>
       <c r="L35" t="n">
-        <v>550.1540613170712</v>
+        <v>550.1540613170711</v>
       </c>
       <c r="M35" t="n">
-        <v>628.9266849108279</v>
+        <v>628.9266849108278</v>
       </c>
       <c r="N35" t="n">
         <v>624.3235806944692</v>
       </c>
       <c r="O35" t="n">
-        <v>543.8869749005387</v>
+        <v>543.8869749005386</v>
       </c>
       <c r="P35" t="n">
-        <v>426.1400175778904</v>
+        <v>426.1400175778903</v>
       </c>
       <c r="Q35" t="n">
         <v>242.0116286270287</v>
@@ -37385,13 +37385,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>63.77765559900783</v>
+        <v>63.77765559900777</v>
       </c>
       <c r="L36" t="n">
-        <v>132.5473742156856</v>
+        <v>132.5473742156855</v>
       </c>
       <c r="M36" t="n">
-        <v>542.3443822261817</v>
+        <v>542.3443822261822</v>
       </c>
       <c r="N36" t="n">
         <v>672.7368083097647</v>
@@ -37400,7 +37400,7 @@
         <v>548.3362061118958</v>
       </c>
       <c r="P36" t="n">
-        <v>422.9133317429018</v>
+        <v>422.9133317429017</v>
       </c>
       <c r="Q36" t="n">
         <v>229.4762923244417</v>
@@ -37473,13 +37473,13 @@
         <v>292.1843622710105</v>
       </c>
       <c r="N37" t="n">
-        <v>292.8310540323192</v>
+        <v>292.8310540323191</v>
       </c>
       <c r="O37" t="n">
         <v>261.0558127425885</v>
       </c>
       <c r="P37" t="n">
-        <v>212.3951011562659</v>
+        <v>212.3951011562658</v>
       </c>
       <c r="Q37" t="n">
         <v>90.00507482423116</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>112.4876802648754</v>
       </c>
       <c r="K39" t="n">
         <v>63.77765559900777</v>
@@ -37628,7 +37628,7 @@
         <v>132.5473742156855</v>
       </c>
       <c r="M39" t="n">
-        <v>542.3443822261822</v>
+        <v>639.933989697156</v>
       </c>
       <c r="N39" t="n">
         <v>672.7368083097647</v>
@@ -37640,7 +37640,7 @@
         <v>422.9133317429017</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.4762923244417</v>
+        <v>19.39900458859256</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>186.1119213978385</v>
+        <v>186.1119213978386</v>
       </c>
       <c r="K41" t="n">
         <v>400.8979743717589</v>
@@ -37862,19 +37862,19 @@
         <v>63.77765559900777</v>
       </c>
       <c r="L42" t="n">
-        <v>132.5473742156855</v>
+        <v>503.3877195191447</v>
       </c>
       <c r="M42" t="n">
-        <v>542.3443822261822</v>
+        <v>639.933989697156</v>
       </c>
       <c r="N42" t="n">
-        <v>672.7368083097647</v>
+        <v>522.769624175269</v>
       </c>
       <c r="O42" t="n">
         <v>548.3362061118958</v>
       </c>
       <c r="P42" t="n">
-        <v>422.9133317429017</v>
+        <v>104.4505631029646</v>
       </c>
       <c r="Q42" t="n">
         <v>229.4762923244417</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.16184126945284</v>
+        <v>69.16184126945288</v>
       </c>
       <c r="K43" t="n">
-        <v>187.8606102708903</v>
+        <v>187.8606102708904</v>
       </c>
       <c r="L43" t="n">
-        <v>271.7306919103283</v>
+        <v>271.7306919103284</v>
       </c>
       <c r="M43" t="n">
-        <v>292.1843622710104</v>
+        <v>292.1843622710105</v>
       </c>
       <c r="N43" t="n">
         <v>292.8310540323191</v>
@@ -37956,7 +37956,7 @@
         <v>212.3951011562658</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.0050748242311</v>
+        <v>90.00507482423114</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,19 +38093,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>117.2173089427726</v>
       </c>
       <c r="K45" t="n">
-        <v>63.77765559900777</v>
+        <v>328.2428926115864</v>
       </c>
       <c r="L45" t="n">
         <v>132.5473742156855</v>
       </c>
       <c r="M45" t="n">
-        <v>542.3443822261822</v>
+        <v>639.933989697156</v>
       </c>
       <c r="N45" t="n">
-        <v>672.7368083097647</v>
+        <v>193.4646548834399</v>
       </c>
       <c r="O45" t="n">
         <v>548.3362061118958</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.16184126945286</v>
+        <v>69.16184126945288</v>
       </c>
       <c r="K46" t="n">
         <v>187.8606102708904</v>
@@ -38193,7 +38193,7 @@
         <v>212.3951011562658</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.00507482423113</v>
+        <v>90.00507482423114</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
